--- a/ceper_rais/evol.xlsx
+++ b/ceper_rais/evol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\CEPER\ceper_rais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E02D28B-6B82-4A7C-89CC-CBA968E40244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805B2813-9BD6-448E-9BC6-62EBA5739314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="112">
   <si>
     <t>Região Gov SP</t>
   </si>
@@ -326,6 +326,39 @@
   </si>
   <si>
     <t>65 OU MAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Região </t>
+  </si>
+  <si>
+    <t>regiao</t>
+  </si>
+  <si>
+    <t>SÃO PAULO</t>
+  </si>
+  <si>
+    <t>MARÍLIA</t>
+  </si>
+  <si>
+    <t>ARAÇATUBA</t>
+  </si>
+  <si>
+    <t>AVARÉ</t>
+  </si>
+  <si>
+    <t>JAÚ</t>
+  </si>
+  <si>
+    <t>JUNDIAÍ</t>
+  </si>
+  <si>
+    <t>SÃO CARLOS</t>
+  </si>
+  <si>
+    <t>TAUBATÉ</t>
+  </si>
+  <si>
+    <t>TUPÃ</t>
   </si>
 </sst>
 </file>
@@ -336,7 +369,7 @@
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +544,22 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -969,7 +1018,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1080,6 +1129,10 @@
     <xf numFmtId="0" fontId="23" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1116,9 +1169,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1463,16 +1514,16 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
@@ -1491,22 +1542,22 @@
       <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45" t="s">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="45"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="6">
         <v>2018</v>
       </c>
@@ -1521,10 +1572,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="7">
         <v>3198.0539571216491</v>
       </c>
@@ -1541,17 +1592,17 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1573,7 +1624,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="49"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="12" t="s">
         <v>2</v>
       </c>
@@ -1593,17 +1644,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1625,7 +1676,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="16" t="s">
         <v>58</v>
       </c>
@@ -1645,7 +1696,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="16" t="s">
         <v>59</v>
       </c>
@@ -1665,7 +1716,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="16" t="s">
         <v>60</v>
       </c>
@@ -1685,7 +1736,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="16" t="s">
         <v>61</v>
       </c>
@@ -1705,7 +1756,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="16" t="s">
         <v>62</v>
       </c>
@@ -1725,7 +1776,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="49"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="12" t="s">
         <v>63</v>
       </c>
@@ -1745,17 +1796,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -1777,7 +1828,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="16" t="s">
         <v>66</v>
       </c>
@@ -1797,7 +1848,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="16" t="s">
         <v>67</v>
       </c>
@@ -1817,7 +1868,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="16" t="s">
         <v>68</v>
       </c>
@@ -1837,7 +1888,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="16" t="s">
         <v>69</v>
       </c>
@@ -1857,7 +1908,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="16" t="s">
         <v>70</v>
       </c>
@@ -1877,7 +1928,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="50"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="16" t="s">
         <v>71</v>
       </c>
@@ -1897,17 +1948,17 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -1929,7 +1980,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="16" t="s">
         <v>74</v>
       </c>
@@ -1949,7 +2000,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="16" t="s">
         <v>75</v>
       </c>
@@ -1969,7 +2020,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="16" t="s">
         <v>76</v>
       </c>
@@ -1989,7 +2040,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="53"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="20" t="s">
         <v>77</v>
       </c>
@@ -2009,17 +2060,17 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="50" t="s">
         <v>54</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -2041,7 +2092,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="50"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="16" t="s">
         <v>80</v>
       </c>
@@ -2061,7 +2112,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="50"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="16" t="s">
         <v>81</v>
       </c>
@@ -2081,7 +2132,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="50"/>
+      <c r="A37" s="52"/>
       <c r="B37" s="16" t="s">
         <v>82</v>
       </c>
@@ -2101,7 +2152,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="16" t="s">
         <v>83</v>
       </c>
@@ -2121,7 +2172,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="53"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="20" t="s">
         <v>84</v>
       </c>
@@ -2159,24 +2210,24 @@
       <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2225,7 +2276,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2264,7 +2315,7 @@
       <c r="U1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="42" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="40">
@@ -2303,7 +2354,7 @@
       <c r="U2"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="42" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="40">
@@ -2342,7 +2393,7 @@
       <c r="U3"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="42" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="40">
@@ -2381,7 +2432,7 @@
       <c r="U4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="42" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="40">
@@ -2420,7 +2471,7 @@
       <c r="U5"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="42" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="40">
@@ -2459,7 +2510,7 @@
       <c r="U6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="40">
@@ -2498,7 +2549,7 @@
       <c r="U7"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="42" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="40">
@@ -2537,7 +2588,7 @@
       <c r="U8"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="40">
@@ -2576,7 +2627,7 @@
       <c r="U9"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="40">
@@ -2615,7 +2666,7 @@
       <c r="U10"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="42" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="40">
@@ -2654,7 +2705,7 @@
       <c r="U11"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="40">
@@ -2693,7 +2744,7 @@
       <c r="U12"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="40">
@@ -2732,7 +2783,7 @@
       <c r="U13"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="42" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="40">
@@ -2771,7 +2822,7 @@
       <c r="U14"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="40">
@@ -2810,7 +2861,7 @@
       <c r="U15"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="42" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="40">
@@ -2849,7 +2900,7 @@
       <c r="U16"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="42" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="40">
@@ -2888,7 +2939,7 @@
       <c r="U17"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="42" t="s">
         <v>45</v>
       </c>
       <c r="B18" s="40">
@@ -2927,7 +2978,7 @@
       <c r="U18"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="40">
@@ -2966,7 +3017,7 @@
       <c r="U19"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="40">
@@ -3005,7 +3056,7 @@
       <c r="U20"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="40">
@@ -3044,7 +3095,7 @@
       <c r="U21"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="42" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="40">
@@ -3083,7 +3134,7 @@
       <c r="U22"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="42" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="40">
@@ -3122,7 +3173,7 @@
       <c r="U23"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="42" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="40">
@@ -3161,7 +3212,7 @@
       <c r="U24"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="42" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="40">
@@ -3200,7 +3251,7 @@
       <c r="U25"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="42" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="40">
@@ -3239,7 +3290,7 @@
       <c r="U26"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="42" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="40">
@@ -3278,7 +3329,7 @@
       <c r="U27"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="42" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="40">
@@ -3317,7 +3368,7 @@
       <c r="U28"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="42" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="40">
@@ -3356,7 +3407,7 @@
       <c r="U29"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="42" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="40">
@@ -3395,7 +3446,7 @@
       <c r="U30"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="42" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="40">
@@ -3434,7 +3485,7 @@
       <c r="U31"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="40">
@@ -3473,7 +3524,7 @@
       <c r="U32"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="42" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="40">
@@ -3512,7 +3563,7 @@
       <c r="U33"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="40">
@@ -3551,7 +3602,7 @@
       <c r="U34"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="42" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="40">
@@ -3590,7 +3641,7 @@
       <c r="U35"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="54" t="s">
+      <c r="A36" s="42" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="40">
@@ -3629,7 +3680,7 @@
       <c r="U36"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="40">
@@ -3668,7 +3719,7 @@
       <c r="U37"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="40">
@@ -3707,7 +3758,7 @@
       <c r="U38"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B39" s="40">
@@ -3746,7 +3797,7 @@
       <c r="U39"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="42" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="40">
@@ -3785,7 +3836,7 @@
       <c r="U40"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="42" t="s">
         <v>16</v>
       </c>
       <c r="B41" s="40">
@@ -3824,7 +3875,7 @@
       <c r="U41"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="42" t="s">
         <v>11</v>
       </c>
       <c r="B42" s="40">
@@ -3863,7 +3914,7 @@
       <c r="U42"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="42" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="40">
@@ -3902,7 +3953,7 @@
       <c r="U43"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="54" t="s">
+      <c r="A44" s="42" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="40">
@@ -3941,7 +3992,7 @@
       <c r="U44"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="54"/>
+      <c r="A45" s="42"/>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
@@ -3962,7 +4013,7 @@
       <c r="U45"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
+      <c r="A46" s="42"/>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
       <c r="D46" s="40"/>
@@ -3983,7 +4034,7 @@
       <c r="U46"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
+      <c r="A47" s="42"/>
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
       <c r="D47" s="40"/>
@@ -4028,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4056,7 +4107,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B1">
         <v>2003</v>
@@ -4085,7 +4136,7 @@
       <c r="P1" s="33"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="56" t="s">
         <v>35</v>
       </c>
       <c r="B2">
@@ -4129,7 +4180,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>0.17052438130533196</v>
@@ -4189,7 +4240,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <v>0.10700254530142547</v>
@@ -4509,7 +4560,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B23">
         <v>0.29840934120659723</v>
@@ -4529,7 +4580,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="B24">
         <v>0.44347140205037977</v>
@@ -4589,7 +4640,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="B27">
         <v>0.1235162856453098</v>
@@ -4809,7 +4860,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B38">
         <v>0.32353446994946083</v>
@@ -4829,7 +4880,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="B39">
         <v>0.30325747650741547</v>
@@ -4889,7 +4940,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B42">
         <v>0.71221541214649842</v>
@@ -4908,8 +4959,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>41</v>
+      <c r="A43" s="56" t="s">
+        <v>111</v>
       </c>
       <c r="B43">
         <v>0.17040892904508417</v>
@@ -4974,15 +5025,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E2A4B-9996-4B03-BD5B-BF214D8F07CC}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
         <v>65</v>
@@ -5022,7 +5073,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="43" t="s">
         <v>35</v>
       </c>
       <c r="B2">

--- a/ceper_rais/evol.xlsx
+++ b/ceper_rais/evol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\CEPER\ceper_rais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805B2813-9BD6-448E-9BC6-62EBA5739314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CACBA2-F344-44ED-B55E-4FDA2148283C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL" sheetId="2" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="112">
-  <si>
-    <t>Região Gov SP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
   <si>
     <t>Masculino</t>
   </si>
@@ -37,9 +34,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>São Paulo</t>
-  </si>
-  <si>
     <t>REGISTRO</t>
   </si>
   <si>
@@ -58,12 +52,6 @@
     <t>S J CAMPOS</t>
   </si>
   <si>
-    <t>TAUBATE</t>
-  </si>
-  <si>
-    <t>AVARE</t>
-  </si>
-  <si>
     <t>BOTUCATU</t>
   </si>
   <si>
@@ -82,9 +70,6 @@
     <t>CAMPINAS</t>
   </si>
   <si>
-    <t>JUNDIAI</t>
-  </si>
-  <si>
     <t>LIMEIRA</t>
   </si>
   <si>
@@ -103,9 +88,6 @@
     <t>BAURU</t>
   </si>
   <si>
-    <t>JAU</t>
-  </si>
-  <si>
     <t>LINS</t>
   </si>
   <si>
@@ -127,9 +109,6 @@
     <t>ANDRADINA</t>
   </si>
   <si>
-    <t>ARACATUBA</t>
-  </si>
-  <si>
     <t>ADAMANTINA</t>
   </si>
   <si>
@@ -142,21 +121,12 @@
     <t>ASSIS</t>
   </si>
   <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
     <t>OURINHOS</t>
   </si>
   <si>
-    <t>TUPA</t>
-  </si>
-  <si>
     <t>ARARAQUARA</t>
   </si>
   <si>
-    <t>SAO CARLOS</t>
-  </si>
-  <si>
     <t>BARRETOS</t>
   </si>
   <si>
@@ -326,9 +296,6 @@
   </si>
   <si>
     <t>65 OU MAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Região </t>
   </si>
   <si>
     <t>regiao</t>
@@ -369,7 +336,7 @@
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,14 +518,6 @@
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -566,7 +525,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,12 +714,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF315958"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +971,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1126,15 +1079,27 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1151,25 +1116,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1514,16 +1463,16 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
@@ -1542,22 +1491,22 @@
       <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="47"/>
+      <c r="A5" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="6">
         <v>2018</v>
       </c>
@@ -1565,17 +1514,17 @@
         <v>2019</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="49"/>
+      <c r="A7" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="53"/>
       <c r="C7" s="7">
         <v>3198.0539571216491</v>
       </c>
@@ -1592,21 +1541,21 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="A8" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
-        <v>54</v>
+      <c r="A9" s="45" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="10">
         <v>3415.30169299728</v>
@@ -1624,9 +1573,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="13">
         <v>2923.4568807942937</v>
@@ -1644,21 +1593,21 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
+      <c r="A11" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
-        <v>54</v>
+      <c r="A12" s="45" t="s">
+        <v>44</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C12" s="10">
         <v>821.54868989739634</v>
@@ -1676,9 +1625,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C13" s="17">
         <v>1635.8672581708915</v>
@@ -1696,9 +1645,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C14" s="17">
         <v>2345.8714705295993</v>
@@ -1716,9 +1665,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C15" s="17">
         <v>3237.2974052545296</v>
@@ -1736,9 +1685,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C16" s="17">
         <v>3776.0772922194546</v>
@@ -1756,9 +1705,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C17" s="17">
         <v>4216.2788590665896</v>
@@ -1776,9 +1725,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C18" s="13">
         <v>4741.047773347047</v>
@@ -1796,21 +1745,21 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+      <c r="A19" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
-        <v>54</v>
+      <c r="A20" s="45" t="s">
+        <v>44</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C20" s="10">
         <v>1576.0620324841686</v>
@@ -1828,9 +1777,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C21" s="17">
         <v>1944.3176202819029</v>
@@ -1848,9 +1797,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C22" s="17">
         <v>2052.9993039984106</v>
@@ -1868,9 +1817,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C23" s="17">
         <v>1822.8369495866677</v>
@@ -1888,9 +1837,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="16" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C24" s="17">
         <v>2277.948030244941</v>
@@ -1908,9 +1857,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C25" s="17">
         <v>3074.2748796797678</v>
@@ -1928,9 +1877,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="52"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C26" s="17">
         <v>6429.0722094753328</v>
@@ -1948,21 +1897,21 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
+      <c r="A27" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
-        <v>54</v>
+      <c r="A28" s="45" t="s">
+        <v>44</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C28" s="10">
         <v>2669.7824384285418</v>
@@ -1980,9 +1929,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="52"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C29" s="17">
         <v>3242.6202433997209</v>
@@ -2000,9 +1949,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="52"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C30" s="17">
         <v>2231.3345083790418</v>
@@ -2020,9 +1969,9 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="52"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="16" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C31" s="17">
         <v>4014.0054670992472</v>
@@ -2040,9 +1989,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="55"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="20" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C32" s="21">
         <v>2264.6245446687849</v>
@@ -2060,21 +2009,21 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="A33" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
-        <v>54</v>
+      <c r="A34" s="45" t="s">
+        <v>44</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C34" s="10">
         <v>3101.5552117275888</v>
@@ -2092,9 +2041,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C35" s="17">
         <v>2933.5035241361916</v>
@@ -2112,9 +2061,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="52"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="16" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C36" s="17">
         <v>3089.1462674611826</v>
@@ -2132,9 +2081,9 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="52"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C37" s="17">
         <v>1480.9252157219007</v>
@@ -2152,9 +2101,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="52"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="16" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C38" s="17">
         <v>2746.206147126104</v>
@@ -2172,9 +2121,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="20" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C39" s="21">
         <v>3295.7610157071554</v>
@@ -2201,7 +2150,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
@@ -2210,34 +2159,27 @@
       <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
+      <c r="A42" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
+      <c r="A43" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
@@ -2249,6 +2191,13 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:A39"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2258,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2276,32 +2225,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L1"/>
       <c r="M1"/>
@@ -2316,7 +2265,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B2" s="40">
         <v>2.0654451034197868E-4</v>
@@ -2354,8 +2303,8 @@
       <c r="U2"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>33</v>
+      <c r="A3" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="40">
         <v>5.1005537744097933E-4</v>
@@ -2393,8 +2342,8 @@
       <c r="U3"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>34</v>
+      <c r="A4" t="s">
+        <v>94</v>
       </c>
       <c r="B4" s="40">
         <v>8.8274238634691775E-5</v>
@@ -2432,8 +2381,8 @@
       <c r="U4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>42</v>
+      <c r="A5" t="s">
+        <v>33</v>
       </c>
       <c r="B5" s="40">
         <v>5.6112944133952822E-5</v>
@@ -2471,8 +2420,8 @@
       <c r="U5"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>38</v>
+      <c r="A6" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="40">
         <v>3.4934497816593884E-5</v>
@@ -2510,8 +2459,8 @@
       <c r="U6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>12</v>
+      <c r="A7" t="s">
+        <v>95</v>
       </c>
       <c r="B7" s="40">
         <v>2.9496349826708945E-5</v>
@@ -2549,8 +2498,8 @@
       <c r="U7"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>17</v>
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="40">
         <v>1.9644049817310335E-5</v>
@@ -2588,8 +2537,8 @@
       <c r="U8"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>44</v>
+      <c r="A9" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="40">
         <v>2.332905633967106E-5</v>
@@ -2627,8 +2576,8 @@
       <c r="U9"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>25</v>
+      <c r="A10" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="40">
         <v>1.3836220149636159E-4</v>
@@ -2666,8 +2615,8 @@
       <c r="U10"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>13</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="40">
         <v>6.3941889610721775E-5</v>
@@ -2705,8 +2654,8 @@
       <c r="U11"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
-        <v>18</v>
+      <c r="A12" t="s">
+        <v>14</v>
       </c>
       <c r="B12" s="40">
         <v>2.8281102849886735E-5</v>
@@ -2744,8 +2693,8 @@
       <c r="U12"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
-        <v>7</v>
+      <c r="A13" t="s">
+        <v>5</v>
       </c>
       <c r="B13" s="40">
         <v>9.3678068625876554E-5</v>
@@ -2783,8 +2732,8 @@
       <c r="U13"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
-        <v>28</v>
+      <c r="A14" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="40">
         <v>2.7500859401856307E-5</v>
@@ -2822,8 +2771,8 @@
       <c r="U14"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
-        <v>8</v>
+      <c r="A15" t="s">
+        <v>6</v>
       </c>
       <c r="B15" s="40">
         <v>0</v>
@@ -2861,8 +2810,8 @@
       <c r="U15"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
-        <v>36</v>
+      <c r="A16" t="s">
+        <v>29</v>
       </c>
       <c r="B16" s="40">
         <v>3.7620857003122529E-5</v>
@@ -2900,8 +2849,8 @@
       <c r="U16"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
-        <v>29</v>
+      <c r="A17" t="s">
+        <v>23</v>
       </c>
       <c r="B17" s="40">
         <v>0</v>
@@ -2939,8 +2888,8 @@
       <c r="U17"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
-        <v>45</v>
+      <c r="A18" t="s">
+        <v>35</v>
       </c>
       <c r="B18" s="40">
         <v>1.2979053250171253E-4</v>
@@ -2978,8 +2927,8 @@
       <c r="U18"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>9</v>
+      <c r="A19" t="s">
+        <v>7</v>
       </c>
       <c r="B19" s="40">
         <v>5.4432136733527471E-5</v>
@@ -3017,8 +2966,8 @@
       <c r="U19"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>14</v>
+      <c r="A20" t="s">
+        <v>10</v>
       </c>
       <c r="B20" s="40">
         <v>8.053345359662403E-6</v>
@@ -3056,8 +3005,8 @@
       <c r="U20"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
-        <v>15</v>
+      <c r="A21" t="s">
+        <v>11</v>
       </c>
       <c r="B21" s="40">
         <v>2.0453115166771553E-4</v>
@@ -3095,8 +3044,8 @@
       <c r="U21"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>24</v>
       </c>
       <c r="B22" s="40">
         <v>6.102584444512251E-5</v>
@@ -3134,8 +3083,8 @@
       <c r="U22"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>26</v>
+      <c r="A23" t="s">
+        <v>96</v>
       </c>
       <c r="B23" s="40">
         <v>3.9056397437900326E-5</v>
@@ -3173,8 +3122,8 @@
       <c r="U23"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>19</v>
+      <c r="A24" t="s">
+        <v>97</v>
       </c>
       <c r="B24" s="40">
         <v>1.2872290785048834E-5</v>
@@ -3212,8 +3161,8 @@
       <c r="U24"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>20</v>
+      <c r="A25" t="s">
+        <v>15</v>
       </c>
       <c r="B25" s="40">
         <v>5.2008841503055518E-6</v>
@@ -3251,8 +3200,8 @@
       <c r="U25"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>27</v>
+      <c r="A26" t="s">
+        <v>21</v>
       </c>
       <c r="B26" s="40">
         <v>1.1458691417440129E-4</v>
@@ -3290,8 +3239,8 @@
       <c r="U26"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
-        <v>39</v>
+      <c r="A27" t="s">
+        <v>93</v>
       </c>
       <c r="B27" s="40">
         <v>1.0478116453786268E-5</v>
@@ -3329,8 +3278,8 @@
       <c r="U27"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
-        <v>40</v>
+      <c r="A28" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="40">
         <v>0</v>
@@ -3368,8 +3317,8 @@
       <c r="U28"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
-        <v>21</v>
+      <c r="A29" t="s">
+        <v>16</v>
       </c>
       <c r="B29" s="40">
         <v>2.9637708649468893E-5</v>
@@ -3407,8 +3356,8 @@
       <c r="U29"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
-        <v>37</v>
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30" s="40">
         <v>1.5442107538836901E-5</v>
@@ -3446,8 +3395,8 @@
       <c r="U30"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
-        <v>5</v>
+      <c r="A31" t="s">
+        <v>3</v>
       </c>
       <c r="B31" s="40">
         <v>2.1580560231343606E-5</v>
@@ -3485,8 +3434,8 @@
       <c r="U31"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
-        <v>24</v>
+      <c r="A32" t="s">
+        <v>19</v>
       </c>
       <c r="B32" s="40">
         <v>7.807524990179598E-5</v>
@@ -3524,8 +3473,8 @@
       <c r="U32"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
-        <v>22</v>
+      <c r="A33" t="s">
+        <v>17</v>
       </c>
       <c r="B33" s="40">
         <v>5.5654496883348173E-5</v>
@@ -3563,8 +3512,8 @@
       <c r="U33"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="42" t="s">
-        <v>23</v>
+      <c r="A34" t="s">
+        <v>18</v>
       </c>
       <c r="B34" s="40">
         <v>0</v>
@@ -3602,8 +3551,8 @@
       <c r="U34"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
-        <v>46</v>
+      <c r="A35" t="s">
+        <v>36</v>
       </c>
       <c r="B35" s="40">
         <v>5.0170579971904475E-5</v>
@@ -3641,8 +3590,8 @@
       <c r="U35"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
-        <v>10</v>
+      <c r="A36" t="s">
+        <v>8</v>
       </c>
       <c r="B36" s="40">
         <v>3.4081355983550066E-5</v>
@@ -3680,8 +3629,8 @@
       <c r="U36"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
-        <v>6</v>
+      <c r="A37" t="s">
+        <v>4</v>
       </c>
       <c r="B37" s="40">
         <v>2.6006517233218646E-5</v>
@@ -3719,8 +3668,8 @@
       <c r="U37"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="42" t="s">
-        <v>43</v>
+      <c r="A38" t="s">
+        <v>98</v>
       </c>
       <c r="B38" s="40">
         <v>1.0252992592212853E-4</v>
@@ -3758,8 +3707,8 @@
       <c r="U38"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
-        <v>4</v>
+      <c r="A39" t="s">
+        <v>92</v>
       </c>
       <c r="B39" s="40">
         <v>2.5776105791582195E-5</v>
@@ -3797,8 +3746,8 @@
       <c r="U39"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="42" t="s">
-        <v>31</v>
+      <c r="A40" t="s">
+        <v>25</v>
       </c>
       <c r="B40" s="40">
         <v>2.1862893422767142E-5</v>
@@ -3836,8 +3785,8 @@
       <c r="U40"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="42" t="s">
-        <v>16</v>
+      <c r="A41" t="s">
+        <v>12</v>
       </c>
       <c r="B41" s="40">
         <v>6.2663476244740333E-5</v>
@@ -3875,8 +3824,8 @@
       <c r="U41"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="42" t="s">
-        <v>11</v>
+      <c r="A42" t="s">
+        <v>99</v>
       </c>
       <c r="B42" s="40">
         <v>7.1856115314693854E-5</v>
@@ -3915,7 +3864,7 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="42" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B43" s="40">
         <v>2.4686481682630591E-5</v>
@@ -3953,8 +3902,8 @@
       <c r="U43"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="42" t="s">
-        <v>32</v>
+      <c r="A44" t="s">
+        <v>26</v>
       </c>
       <c r="B44" s="40">
         <v>2.7357909855687027E-4</v>
@@ -3992,7 +3941,7 @@
       <c r="U44"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
@@ -4013,7 +3962,7 @@
       <c r="U45"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
+      <c r="A46" s="41"/>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
       <c r="D46" s="40"/>
@@ -4034,7 +3983,7 @@
       <c r="U46"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
       <c r="D47" s="40"/>
@@ -4079,8 +4028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4107,7 +4056,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B1">
         <v>2003</v>
@@ -4136,8 +4085,8 @@
       <c r="P1" s="33"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
-        <v>35</v>
+      <c r="A2" s="42" t="s">
+        <v>28</v>
       </c>
       <c r="B2">
         <v>0.12232839728244699</v>
@@ -4160,7 +4109,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>0.34062621734098358</v>
@@ -4180,7 +4129,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B4">
         <v>0.17052438130533196</v>
@@ -4200,7 +4149,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>0.31303836682181718</v>
@@ -4220,7 +4169,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>0.16921686777891026</v>
@@ -4240,7 +4189,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B7">
         <v>0.10700254530142547</v>
@@ -4260,7 +4209,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>0.21622356611473376</v>
@@ -4280,7 +4229,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>0.32179839996992787</v>
@@ -4300,7 +4249,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>0.18023521192684111</v>
@@ -4320,7 +4269,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>4.6961224574705411E-2</v>
@@ -4340,7 +4289,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0.31695729406501855</v>
@@ -4360,7 +4309,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>8.6015268882421003E-2</v>
@@ -4380,7 +4329,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>0.3354812511086035</v>
@@ -4400,7 +4349,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>0.47665352956412488</v>
@@ -4420,7 +4369,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>0.10734482955236566</v>
@@ -4440,7 +4389,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0.12004946280653925</v>
@@ -4460,7 +4409,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>0.12742836736898019</v>
@@ -4480,7 +4429,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>0.27101211733298752</v>
@@ -4500,7 +4449,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>0.2624469752377811</v>
@@ -4520,7 +4469,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>1.0890926030292394E-2</v>
@@ -4540,7 +4489,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0.1362684425641208</v>
@@ -4560,7 +4509,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B23">
         <v>0.29840934120659723</v>
@@ -4580,7 +4529,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B24">
         <v>0.44347140205037977</v>
@@ -4600,7 +4549,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B25">
         <v>0.35743881361956614</v>
@@ -4620,7 +4569,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>0.25905511535562326</v>
@@ -4640,7 +4589,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B27">
         <v>0.1235162856453098</v>
@@ -4660,7 +4609,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>0.2002436701973529</v>
@@ -4680,7 +4629,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>0.37594913768545446</v>
@@ -4700,7 +4649,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>0.1283960249635788</v>
@@ -4720,7 +4669,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31">
         <v>1.3532883357802734E-2</v>
@@ -4740,7 +4689,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B32">
         <v>0.23605248427611786</v>
@@ -4760,7 +4709,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>0.2863045132820729</v>
@@ -4780,7 +4729,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>9.6930281177912747E-2</v>
@@ -4800,7 +4749,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>0.47907219940449525</v>
@@ -4820,7 +4769,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B36">
         <v>0.63418659279463363</v>
@@ -4840,7 +4789,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37">
         <v>0.42441988085865984</v>
@@ -4860,7 +4809,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B38">
         <v>0.32353446994946083</v>
@@ -4880,7 +4829,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B39">
         <v>0.30325747650741547</v>
@@ -4900,7 +4849,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B40">
         <v>5.0249806332744396E-2</v>
@@ -4920,7 +4869,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>0.40217278512095256</v>
@@ -4940,7 +4889,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B42">
         <v>0.71221541214649842</v>
@@ -4959,8 +4908,8 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="56" t="s">
-        <v>111</v>
+      <c r="A43" s="42" t="s">
+        <v>100</v>
       </c>
       <c r="B43">
         <v>0.17040892904508417</v>
@@ -4980,7 +4929,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B44">
         <v>9.8758371749095908E-2</v>
@@ -5032,49 +4981,49 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>101</v>
+      <c r="A1" t="s">
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="M1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
-        <v>35</v>
+      <c r="A2" s="42" t="s">
+        <v>28</v>
       </c>
       <c r="B2">
         <v>0.80652628877285704</v>
@@ -5114,8 +5063,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>33</v>
+      <c r="A3" t="s">
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1.1768638584414741</v>
@@ -5155,8 +5104,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>34</v>
+      <c r="A4" t="s">
+        <v>94</v>
       </c>
       <c r="B4">
         <v>1.3083591295143882</v>
@@ -5196,8 +5145,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>42</v>
+      <c r="A5" t="s">
+        <v>33</v>
       </c>
       <c r="B5">
         <v>1.3671795268701279</v>
@@ -5237,8 +5186,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>38</v>
+      <c r="A6" t="s">
+        <v>31</v>
       </c>
       <c r="B6">
         <v>1.1244224109039351</v>
@@ -5278,8 +5227,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>12</v>
+      <c r="A7" t="s">
+        <v>95</v>
       </c>
       <c r="B7">
         <v>0.95202973702353688</v>
@@ -5319,8 +5268,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>17</v>
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
       <c r="B8">
         <v>1.9114319933633204</v>
@@ -5360,8 +5309,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>44</v>
+      <c r="A9" t="s">
+        <v>34</v>
       </c>
       <c r="B9">
         <v>1.3557360725793777</v>
@@ -5401,8 +5350,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>25</v>
+      <c r="A10" t="s">
+        <v>20</v>
       </c>
       <c r="B10">
         <v>0.85991657970281155</v>
@@ -5442,8 +5391,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>13</v>
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1.1636777773682334</v>
@@ -5483,8 +5432,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>18</v>
+      <c r="A12" t="s">
+        <v>14</v>
       </c>
       <c r="B12">
         <v>1.1646726246973662</v>
@@ -5524,8 +5473,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>7</v>
+      <c r="A13" t="s">
+        <v>5</v>
       </c>
       <c r="B13">
         <v>1.4179213456683881</v>
@@ -5565,8 +5514,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>28</v>
+      <c r="A14" t="s">
+        <v>22</v>
       </c>
       <c r="B14">
         <v>1.1487040835674358</v>
@@ -5606,8 +5555,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>8</v>
+      <c r="A15" t="s">
+        <v>6</v>
       </c>
       <c r="B15">
         <v>1.7630991636306608</v>
@@ -5647,8 +5596,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>36</v>
+      <c r="A16" t="s">
+        <v>29</v>
       </c>
       <c r="B16">
         <v>1.5599704863275083</v>
@@ -5688,8 +5637,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>29</v>
+      <c r="A17" t="s">
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0.97215931492189167</v>
@@ -5729,8 +5678,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>45</v>
+      <c r="A18" t="s">
+        <v>35</v>
       </c>
       <c r="B18">
         <v>0.93341749326228474</v>
@@ -5770,8 +5719,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
-        <v>9</v>
+      <c r="A19" t="s">
+        <v>7</v>
       </c>
       <c r="B19">
         <v>1.3088883713957185</v>
@@ -5811,8 +5760,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
-        <v>14</v>
+      <c r="A20" t="s">
+        <v>10</v>
       </c>
       <c r="B20">
         <v>2.6089879267110589</v>
@@ -5852,8 +5801,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
-        <v>15</v>
+      <c r="A21" t="s">
+        <v>11</v>
       </c>
       <c r="B21">
         <v>1.8259309621261295</v>
@@ -5893,8 +5842,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>24</v>
       </c>
       <c r="B22">
         <v>1.7422020424848526</v>
@@ -5934,8 +5883,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
-        <v>26</v>
+      <c r="A23" t="s">
+        <v>96</v>
       </c>
       <c r="B23">
         <v>1.0812110517458193</v>
@@ -5975,8 +5924,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
-        <v>19</v>
+      <c r="A24" t="s">
+        <v>97</v>
       </c>
       <c r="B24">
         <v>1.476903426624925</v>
@@ -6016,8 +5965,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
-        <v>20</v>
+      <c r="A25" t="s">
+        <v>15</v>
       </c>
       <c r="B25">
         <v>1.7732364540069574</v>
@@ -6057,8 +6006,8 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
-        <v>27</v>
+      <c r="A26" t="s">
+        <v>21</v>
       </c>
       <c r="B26">
         <v>1.3610004611084872</v>
@@ -6098,8 +6047,8 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
-        <v>39</v>
+      <c r="A27" t="s">
+        <v>93</v>
       </c>
       <c r="B27">
         <v>1.6868805563931379</v>
@@ -6139,8 +6088,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>40</v>
+      <c r="A28" t="s">
+        <v>32</v>
       </c>
       <c r="B28">
         <v>1.6098328114752238</v>
@@ -6180,8 +6129,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
-        <v>21</v>
+      <c r="A29" t="s">
+        <v>16</v>
       </c>
       <c r="B29">
         <v>1.5103901196088976</v>
@@ -6221,8 +6170,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
-        <v>37</v>
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30">
         <v>1.354103365720057</v>
@@ -6262,8 +6211,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
-        <v>5</v>
+      <c r="A31" t="s">
+        <v>3</v>
       </c>
       <c r="B31">
         <v>1.8643552585416341</v>
@@ -6303,8 +6252,8 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
-        <v>24</v>
+      <c r="A32" t="s">
+        <v>19</v>
       </c>
       <c r="B32">
         <v>1.0489658813865148</v>
@@ -6344,8 +6293,8 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
-        <v>22</v>
+      <c r="A33" t="s">
+        <v>17</v>
       </c>
       <c r="B33">
         <v>1.0038500629788205</v>
@@ -6385,8 +6334,8 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
-        <v>23</v>
+      <c r="A34" t="s">
+        <v>18</v>
       </c>
       <c r="B34">
         <v>1.3753375460105592</v>
@@ -6426,8 +6375,8 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
-        <v>46</v>
+      <c r="A35" t="s">
+        <v>36</v>
       </c>
       <c r="B35">
         <v>0.60833937158278106</v>
@@ -6467,8 +6416,8 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
-        <v>10</v>
+      <c r="A36" t="s">
+        <v>8</v>
       </c>
       <c r="B36">
         <v>1.5165729768787295</v>
@@ -6508,8 +6457,8 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
-        <v>6</v>
+      <c r="A37" t="s">
+        <v>4</v>
       </c>
       <c r="B37">
         <v>0.99873475730332217</v>
@@ -6549,8 +6498,8 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
-        <v>43</v>
+      <c r="A38" t="s">
+        <v>98</v>
       </c>
       <c r="B38">
         <v>1.1244141892920729</v>
@@ -6590,8 +6539,8 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
-        <v>4</v>
+      <c r="A39" t="s">
+        <v>92</v>
       </c>
       <c r="B39">
         <v>2.0550153983074337</v>
@@ -6631,8 +6580,8 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
-        <v>31</v>
+      <c r="A40" t="s">
+        <v>25</v>
       </c>
       <c r="B40">
         <v>0.90275850215304865</v>
@@ -6672,8 +6621,8 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
-        <v>16</v>
+      <c r="A41" t="s">
+        <v>12</v>
       </c>
       <c r="B41">
         <v>1.3267384288487205</v>
@@ -6713,8 +6662,8 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
-        <v>11</v>
+      <c r="A42" t="s">
+        <v>99</v>
       </c>
       <c r="B42">
         <v>1.3205055056350974</v>
@@ -6754,8 +6703,8 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
-        <v>41</v>
+      <c r="A43" s="42" t="s">
+        <v>100</v>
       </c>
       <c r="B43">
         <v>1.2138200641817252</v>
@@ -6795,8 +6744,8 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
-        <v>32</v>
+      <c r="A44" t="s">
+        <v>26</v>
       </c>
       <c r="B44">
         <v>1.0549933092008406</v>

--- a/ceper_rais/evol.xlsx
+++ b/ceper_rais/evol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\CEPER\ceper_rais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CACBA2-F344-44ED-B55E-4FDA2148283C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8A573A-B5D8-4812-BD47-905A68BD771A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL" sheetId="2" r:id="rId1"/>
@@ -1083,23 +1083,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1116,7 +1101,22 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1463,16 +1463,16 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
@@ -1491,22 +1491,22 @@
       <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="51"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="6">
         <v>2018</v>
       </c>
@@ -1521,10 +1521,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="7">
         <v>3198.0539571216491</v>
       </c>
@@ -1541,17 +1541,17 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="54"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
@@ -1593,17 +1593,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1625,7 +1625,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="16" t="s">
         <v>48</v>
       </c>
@@ -1645,7 +1645,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="16" t="s">
         <v>49</v>
       </c>
@@ -1665,7 +1665,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="16" t="s">
         <v>50</v>
       </c>
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="16" t="s">
         <v>51</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="16" t="s">
         <v>52</v>
       </c>
@@ -1725,7 +1725,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="12" t="s">
         <v>53</v>
       </c>
@@ -1745,17 +1745,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -1777,7 +1777,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="16" t="s">
         <v>56</v>
       </c>
@@ -1797,7 +1797,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="16" t="s">
         <v>57</v>
       </c>
@@ -1817,7 +1817,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="16" t="s">
         <v>58</v>
       </c>
@@ -1837,7 +1837,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="16" t="s">
         <v>59</v>
       </c>
@@ -1857,7 +1857,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="16" t="s">
         <v>60</v>
       </c>
@@ -1877,7 +1877,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="46"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="16" t="s">
         <v>61</v>
       </c>
@@ -1897,17 +1897,17 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -1929,7 +1929,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="16" t="s">
         <v>64</v>
       </c>
@@ -1949,7 +1949,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="16" t="s">
         <v>65</v>
       </c>
@@ -1969,7 +1969,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="16" t="s">
         <v>66</v>
       </c>
@@ -1989,7 +1989,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="48"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="20" t="s">
         <v>67</v>
       </c>
@@ -2009,17 +2009,17 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
     </row>
     <row r="34" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="49" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -2041,7 +2041,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="16" t="s">
         <v>70</v>
       </c>
@@ -2061,7 +2061,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="16" t="s">
         <v>71</v>
       </c>
@@ -2081,7 +2081,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="16" t="s">
         <v>72</v>
       </c>
@@ -2101,7 +2101,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="46"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="16" t="s">
         <v>73</v>
       </c>
@@ -2121,7 +2121,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="20" t="s">
         <v>74</v>
       </c>
@@ -2159,27 +2159,34 @@
       <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
@@ -2191,13 +2198,6 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:A39"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2207,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4028,8 +4028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4204,7 +4204,7 @@
         <v>0.15058508955151273</v>
       </c>
       <c r="F7">
-        <v>-8.3100402987930783E-2</v>
+        <v>8.3100402987930796E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">

--- a/ceper_rais/evol.xlsx
+++ b/ceper_rais/evol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git projects\CEPER\ceper_rais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8A573A-B5D8-4812-BD47-905A68BD771A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E90D3A9-B69A-4E46-AC51-4BDDC7FCD3F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BRASIL" sheetId="2" r:id="rId1"/>
@@ -1083,8 +1083,23 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1101,22 +1116,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1463,16 +1463,16 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
@@ -1491,22 +1491,22 @@
       <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="6">
         <v>2018</v>
       </c>
@@ -1521,10 +1521,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="7">
         <v>3198.0539571216491</v>
       </c>
@@ -1541,17 +1541,17 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -1573,7 +1573,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
@@ -1593,17 +1593,17 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1625,7 +1625,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="16" t="s">
         <v>48</v>
       </c>
@@ -1645,7 +1645,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="16" t="s">
         <v>49</v>
       </c>
@@ -1665,7 +1665,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="16" t="s">
         <v>50</v>
       </c>
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="16" t="s">
         <v>51</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="16" t="s">
         <v>52</v>
       </c>
@@ -1725,7 +1725,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="50"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="12" t="s">
         <v>53</v>
       </c>
@@ -1745,17 +1745,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -1777,7 +1777,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="16" t="s">
         <v>56</v>
       </c>
@@ -1797,7 +1797,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>57</v>
       </c>
@@ -1817,7 +1817,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="16" t="s">
         <v>58</v>
       </c>
@@ -1837,7 +1837,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="16" t="s">
         <v>59</v>
       </c>
@@ -1857,7 +1857,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>60</v>
       </c>
@@ -1877,7 +1877,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="51"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="16" t="s">
         <v>61</v>
       </c>
@@ -1897,17 +1897,17 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -1929,7 +1929,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="16" t="s">
         <v>64</v>
       </c>
@@ -1949,7 +1949,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="16" t="s">
         <v>65</v>
       </c>
@@ -1969,7 +1969,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="16" t="s">
         <v>66</v>
       </c>
@@ -1989,7 +1989,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="54"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="20" t="s">
         <v>67</v>
       </c>
@@ -2009,17 +2009,17 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="1:6" ht="15.6" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="45" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -2041,7 +2041,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="16" t="s">
         <v>70</v>
       </c>
@@ -2061,7 +2061,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="16" t="s">
         <v>71</v>
       </c>
@@ -2081,7 +2081,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A37" s="51"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="16" t="s">
         <v>72</v>
       </c>
@@ -2101,7 +2101,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A38" s="51"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="16" t="s">
         <v>73</v>
       </c>
@@ -2121,7 +2121,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A39" s="54"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="20" t="s">
         <v>74</v>
       </c>
@@ -2159,34 +2159,27 @@
       <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
@@ -2198,6 +2191,13 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:A39"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4028,7 +4028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -4972,15 +4972,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E2A4B-9996-4B03-BD5B-BF214D8F07CC}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="18" max="18" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -5021,1771 +5024,1815 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
-        <v>0.80652628877285704</v>
-      </c>
-      <c r="C2">
-        <v>1.1832473299648123</v>
-      </c>
-      <c r="D2">
-        <v>1.027486038573215</v>
-      </c>
-      <c r="E2">
-        <v>0.94433668097888612</v>
-      </c>
-      <c r="F2">
-        <v>1.1533492005549999</v>
-      </c>
-      <c r="G2">
-        <v>1.1097825075454399</v>
-      </c>
-      <c r="H2">
-        <v>1.2309125437480091</v>
-      </c>
-      <c r="I2">
-        <v>1.3011861969063412</v>
-      </c>
-      <c r="J2">
-        <v>0.88856641772788125</v>
-      </c>
-      <c r="K2">
-        <v>0.57345442858135509</v>
-      </c>
-      <c r="L2">
-        <v>9.9801055490578552</v>
-      </c>
-      <c r="M2">
-        <v>1.2593266272554098</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="24">
+        <v>-8.1330165351117173E-2</v>
+      </c>
+      <c r="C2" s="24">
+        <v>0.11024316450928387</v>
+      </c>
+      <c r="D2" s="24">
+        <v>3.1034131849916241E-2</v>
+      </c>
+      <c r="E2" s="24">
+        <v>-1.1249673853365819E-2</v>
+      </c>
+      <c r="F2" s="24">
+        <v>9.5039118062840586E-2</v>
+      </c>
+      <c r="G2" s="24">
+        <v>7.2884219508622228E-2</v>
+      </c>
+      <c r="H2" s="24">
+        <v>0.134482277074016</v>
+      </c>
+      <c r="I2" s="24">
+        <v>0.1702184220326321</v>
+      </c>
+      <c r="J2" s="24">
+        <v>-3.9610433858650963E-2</v>
+      </c>
+      <c r="K2" s="24">
+        <v>-0.19985381407636221</v>
+      </c>
+      <c r="L2" s="24">
+        <v>4.5836949685532966</v>
+      </c>
+      <c r="M2" s="24">
+        <v>0.14893164410491297</v>
+      </c>
+      <c r="P2" s="24"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3">
-        <v>1.1768638584414741</v>
-      </c>
-      <c r="C3">
-        <v>1.2985117923215401</v>
-      </c>
-      <c r="D3">
-        <v>1.0765864610344935</v>
-      </c>
-      <c r="E3">
-        <v>1.160800598596583</v>
-      </c>
-      <c r="F3">
-        <v>1.2985948533833849</v>
-      </c>
-      <c r="G3">
-        <v>1.2438789432755639</v>
-      </c>
-      <c r="H3">
-        <v>1.0184275671662901</v>
-      </c>
-      <c r="I3">
-        <v>0.74212773565313761</v>
-      </c>
-      <c r="J3">
-        <v>0.65319308921289676</v>
-      </c>
-      <c r="K3">
-        <v>2.3560870386573805</v>
-      </c>
-      <c r="L3">
-        <v>2.7238968093290055</v>
-      </c>
-      <c r="M3">
-        <v>1.0482814982239361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="24">
+        <v>0.10699698826193209</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0.16885841147924449</v>
+      </c>
+      <c r="D3" s="24">
+        <v>5.6003088717039136E-2</v>
+      </c>
+      <c r="E3" s="24">
+        <v>9.8828365221493408E-2</v>
+      </c>
+      <c r="F3" s="24">
+        <v>0.16890065038405569</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0.14107605884403468</v>
+      </c>
+      <c r="H3" s="24">
+        <v>2.6427642322867109E-2</v>
+      </c>
+      <c r="I3" s="24">
+        <v>-0.11407865537519933</v>
+      </c>
+      <c r="J3" s="24">
+        <v>-0.15930444447529116</v>
+      </c>
+      <c r="K3" s="24">
+        <v>0.70666540754574714</v>
+      </c>
+      <c r="L3" s="24">
+        <v>0.89370710370322304</v>
+      </c>
+      <c r="M3" s="24">
+        <v>4.1609212654166637E-2</v>
+      </c>
+      <c r="P3" s="24"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>94</v>
       </c>
-      <c r="B4">
-        <v>1.3083591295143882</v>
-      </c>
-      <c r="C4">
-        <v>1.1678976448041156</v>
-      </c>
-      <c r="D4">
-        <v>1.3320826388673841</v>
-      </c>
-      <c r="E4">
-        <v>1.3487299510224515</v>
-      </c>
-      <c r="F4">
-        <v>1.4073062960591622</v>
-      </c>
-      <c r="G4">
-        <v>1.2818776698250902</v>
-      </c>
-      <c r="H4">
-        <v>1.2331599594362597</v>
-      </c>
-      <c r="I4">
-        <v>1.0002247490426275</v>
-      </c>
-      <c r="J4">
-        <v>0.82174589136848031</v>
-      </c>
-      <c r="K4">
-        <v>0.33830208805455614</v>
-      </c>
-      <c r="L4">
-        <v>1.0769471723806923</v>
-      </c>
-      <c r="M4">
-        <v>1.3606611759771452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="24">
+        <v>0.17386606162356125</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.10243741442630637</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0.18593013871452477</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0.19439576891314916</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0.22418350106166088</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0.16039948859596698</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0.13562515166795</v>
+      </c>
+      <c r="I4" s="24">
+        <v>1.7170993239078631E-2</v>
+      </c>
+      <c r="J4" s="24">
+        <v>-7.3590565940449035E-2</v>
+      </c>
+      <c r="K4" s="24">
+        <v>-0.31943544603578189</v>
+      </c>
+      <c r="L4" s="24">
+        <v>5.6186520663104936E-2</v>
+      </c>
+      <c r="M4" s="24">
+        <v>0.20046313506464444</v>
+      </c>
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5">
-        <v>1.3671795268701279</v>
-      </c>
-      <c r="C5">
-        <v>1.4008328821510712</v>
-      </c>
-      <c r="D5">
-        <v>1.271843374886519</v>
-      </c>
-      <c r="E5">
-        <v>1.1331061337845707</v>
-      </c>
-      <c r="F5">
-        <v>1.261430014373804</v>
-      </c>
-      <c r="G5">
-        <v>1.2958960962706032</v>
-      </c>
-      <c r="H5">
-        <v>0.97203686443689119</v>
-      </c>
-      <c r="I5">
-        <v>0.81461824282202577</v>
-      </c>
-      <c r="J5">
-        <v>0.67148729542498065</v>
-      </c>
-      <c r="K5">
-        <v>0.26133194690170558</v>
-      </c>
-      <c r="L5">
-        <v>0.17550478680425638</v>
-      </c>
-      <c r="M5">
-        <v>1.2395239568400729</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="24">
+        <v>0.20377790129542397</v>
+      </c>
+      <c r="C5" s="24">
+        <v>0.22089158656170663</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0.15529676513751295</v>
+      </c>
+      <c r="E5" s="24">
+        <v>8.4744944699103333E-2</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0.15000127608772254</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0.16752825587977169</v>
+      </c>
+      <c r="H5" s="24">
+        <v>2.8366547626406812E-3</v>
+      </c>
+      <c r="I5" s="24">
+        <v>-7.7215177302210447E-2</v>
+      </c>
+      <c r="J5" s="24">
+        <v>-0.15000132195759783</v>
+      </c>
+      <c r="K5" s="24">
+        <v>-0.35857694499167181</v>
+      </c>
+      <c r="L5" s="24">
+        <v>-0.4022224891861414</v>
+      </c>
+      <c r="M5" s="24">
+        <v>0.13886142477341254</v>
+      </c>
+      <c r="P5" s="24"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6">
-        <v>1.1244224109039351</v>
-      </c>
-      <c r="C6">
-        <v>0.92496668672032356</v>
-      </c>
-      <c r="D6">
-        <v>1.5298104614340191</v>
-      </c>
-      <c r="E6">
-        <v>1.3041759164089006</v>
-      </c>
-      <c r="F6">
-        <v>1.446613424111215</v>
-      </c>
-      <c r="G6">
-        <v>1.1588912384589634</v>
-      </c>
-      <c r="H6">
-        <v>1.2765935200694891</v>
-      </c>
-      <c r="I6">
-        <v>1.1130586182869666</v>
-      </c>
-      <c r="J6">
-        <v>1.3341361175310196</v>
-      </c>
-      <c r="K6">
-        <v>0.65818185609370405</v>
-      </c>
-      <c r="L6">
-        <v>0.48832184756572072</v>
-      </c>
-      <c r="M6">
-        <v>1.4160028302942498</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="24">
+        <v>8.0329025422163788E-2</v>
+      </c>
+      <c r="C6" s="24">
+        <v>-2.109986509234929E-2</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.28648034226908459</v>
+      </c>
+      <c r="E6" s="24">
+        <v>0.17173877916118976</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0.24417229007210503</v>
+      </c>
+      <c r="G6" s="24">
+        <v>9.7857401459264456E-2</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0.15771234863436967</v>
+      </c>
+      <c r="I6" s="24">
+        <v>7.4550214701669934E-2</v>
+      </c>
+      <c r="J6" s="24">
+        <v>0.18697439083313555</v>
+      </c>
+      <c r="K6" s="24">
+        <v>-0.15676751507992309</v>
+      </c>
+      <c r="L6" s="24">
+        <v>-0.24314614511572469</v>
+      </c>
+      <c r="M6" s="24">
+        <v>0.22860593527555395</v>
+      </c>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
-      <c r="B7">
-        <v>0.95202973702353688</v>
-      </c>
-      <c r="C7">
-        <v>1.6633388946561758</v>
-      </c>
-      <c r="D7">
-        <v>1.9237751355514539</v>
-      </c>
-      <c r="E7">
-        <v>1.6359150688314119</v>
-      </c>
-      <c r="F7">
-        <v>1.6514930717790746</v>
-      </c>
-      <c r="G7">
-        <v>1.4956728748061718</v>
-      </c>
-      <c r="H7">
-        <v>1.2332936840016242</v>
-      </c>
-      <c r="I7">
-        <v>0.90546195907234828</v>
-      </c>
-      <c r="J7">
-        <v>1.3497994973815339</v>
-      </c>
-      <c r="K7">
-        <v>-4.3580282342122405E-2</v>
-      </c>
-      <c r="L7">
-        <v>-0.27768063991763858</v>
-      </c>
-      <c r="M7">
-        <v>1.6172397245181833</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="24">
+        <v>-7.337536748909604E-3</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0.35438333622576235</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.48682254834614841</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.34043754330127152</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.34835939945195615</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0.26912041163446337</v>
+      </c>
+      <c r="H7" s="24">
+        <v>0.13569315440066151</v>
+      </c>
+      <c r="I7" s="24">
+        <v>-3.1018572079673935E-2</v>
+      </c>
+      <c r="J7" s="24">
+        <v>0.1949396635594402</v>
+      </c>
+      <c r="K7" s="24">
+        <v>-0.51363345812557482</v>
+      </c>
+      <c r="L7" s="24">
+        <v>-0.6326801269295097</v>
+      </c>
+      <c r="M7" s="24">
+        <v>0.33094060125350372</v>
+      </c>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>1.9114319933633204</v>
-      </c>
-      <c r="C8">
-        <v>1.4093873863688895</v>
-      </c>
-      <c r="D8">
-        <v>1.3402486402929186</v>
-      </c>
-      <c r="E8">
-        <v>1.2812049741288722</v>
-      </c>
-      <c r="F8">
-        <v>1.3271156844803282</v>
-      </c>
-      <c r="G8">
-        <v>1.1582382724486044</v>
-      </c>
-      <c r="H8">
-        <v>1.0933594313696426</v>
-      </c>
-      <c r="I8">
-        <v>0.72516010019817911</v>
-      </c>
-      <c r="J8">
-        <v>0.83058452447228248</v>
-      </c>
-      <c r="K8">
-        <v>0.61227226771770715</v>
-      </c>
-      <c r="L8">
-        <v>0.82195598389994717</v>
-      </c>
-      <c r="M8">
-        <v>1.334891224238455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="24">
+        <v>0.48054571060318746</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.2252417944851268</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.19008278195362988</v>
+      </c>
+      <c r="E8" s="24">
+        <v>0.16005740376285169</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0.18340430159063517</v>
+      </c>
+      <c r="G8" s="24">
+        <v>9.752534973076453E-2</v>
+      </c>
+      <c r="H8" s="24">
+        <v>6.4532619662768687E-2</v>
+      </c>
+      <c r="I8" s="24">
+        <v>-0.12270717905330071</v>
+      </c>
+      <c r="J8" s="24">
+        <v>-6.9095870423171141E-2</v>
+      </c>
+      <c r="K8" s="24">
+        <v>-0.18011384235137651</v>
+      </c>
+      <c r="L8" s="24">
+        <v>-7.3483727931867054E-2</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0.18735838400188884</v>
+      </c>
+      <c r="P8" s="24"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9">
-        <v>1.3557360725793777</v>
-      </c>
-      <c r="C9">
-        <v>1.2972030229088698</v>
-      </c>
-      <c r="D9">
-        <v>1.1704684979466788</v>
-      </c>
-      <c r="E9">
-        <v>1.4013026544660852</v>
-      </c>
-      <c r="F9">
-        <v>1.4102258150439246</v>
-      </c>
-      <c r="G9">
-        <v>1.363386795030056</v>
-      </c>
-      <c r="H9">
-        <v>1.1428481147963117</v>
-      </c>
-      <c r="I9">
-        <v>1.1855544754580838</v>
-      </c>
-      <c r="J9">
-        <v>1.2129043208270143</v>
-      </c>
-      <c r="K9">
-        <v>0.31411401874452483</v>
-      </c>
-      <c r="L9">
-        <v>0.20727570236180626</v>
-      </c>
-      <c r="M9">
-        <v>1.4286807425860173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="24">
+        <v>0.19795858035532493</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.16819286512799364</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.10374476613553021</v>
+      </c>
+      <c r="E9" s="24">
+        <v>0.22113047910240125</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0.22566815923666464</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.20184918962704693</v>
+      </c>
+      <c r="H9" s="24">
+        <v>8.9699018238375228E-2</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0.11141641340247001</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0.12532458516775069</v>
+      </c>
+      <c r="K9" s="24">
+        <v>-0.3317357650356324</v>
+      </c>
+      <c r="L9" s="24">
+        <v>-0.38606607788823311</v>
+      </c>
+      <c r="M9" s="24">
+        <v>0.23505301310727608</v>
+      </c>
+      <c r="P9" s="24"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
-        <v>0.85991657970281155</v>
-      </c>
-      <c r="C10">
-        <v>1.2933614795299069</v>
-      </c>
-      <c r="D10">
-        <v>1.3288616550327133</v>
-      </c>
-      <c r="E10">
-        <v>1.3555152071784426</v>
-      </c>
-      <c r="F10">
-        <v>1.2994619428955281</v>
-      </c>
-      <c r="G10">
-        <v>1.0771200302999062</v>
-      </c>
-      <c r="H10">
-        <v>1.0360930388673029</v>
-      </c>
-      <c r="I10">
-        <v>0.73177551398146656</v>
-      </c>
-      <c r="J10">
-        <v>0.75898362345811654</v>
-      </c>
-      <c r="K10">
-        <v>0.2753674839875675</v>
-      </c>
-      <c r="L10">
-        <v>0.48571587657509718</v>
-      </c>
-      <c r="M10">
-        <v>1.1763866130119127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="24">
+        <v>-5.4179688745656499E-2</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.16623933140823494</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.18429217711651577</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0.19784626403719677</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.16934158998382626</v>
+      </c>
+      <c r="G10" s="24">
+        <v>5.6274423815718136E-2</v>
+      </c>
+      <c r="H10" s="24">
+        <v>3.541103551643518E-2</v>
+      </c>
+      <c r="I10" s="24">
+        <v>-0.11934305359097215</v>
+      </c>
+      <c r="J10" s="24">
+        <v>-0.10550695854526901</v>
+      </c>
+      <c r="K10" s="24">
+        <v>-0.35143947646214607</v>
+      </c>
+      <c r="L10" s="24">
+        <v>-0.24447135524631294</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0.10675429543061984</v>
+      </c>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.1636777773682334</v>
-      </c>
-      <c r="C11">
-        <v>1.3720093018621848</v>
-      </c>
-      <c r="D11">
-        <v>1.4183017740527311</v>
-      </c>
-      <c r="E11">
-        <v>1.6380158817255448</v>
-      </c>
-      <c r="F11">
-        <v>1.3835342893273475</v>
-      </c>
-      <c r="G11">
-        <v>1.369167284900128</v>
-      </c>
-      <c r="H11">
-        <v>0.92096795933723774</v>
-      </c>
-      <c r="I11">
-        <v>0.73214047943348382</v>
-      </c>
-      <c r="J11">
-        <v>0.60404906392220836</v>
-      </c>
-      <c r="K11">
-        <v>-3.7856727251359308E-2</v>
-      </c>
-      <c r="L11">
-        <v>1.6830182143863182</v>
-      </c>
-      <c r="M11">
-        <v>1.2466868811751419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="24">
+        <v>0.10029149219774276</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.20623397880778521</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.22977501335407213</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0.34150586621806217</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0.21209476167861929</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0.20478873260858615</v>
+      </c>
+      <c r="H11" s="24">
+        <v>-2.3133331334526452E-2</v>
+      </c>
+      <c r="I11" s="24">
+        <v>-0.11915745831148965</v>
+      </c>
+      <c r="J11" s="24">
+        <v>-0.18429557461735233</v>
+      </c>
+      <c r="K11" s="24">
+        <v>-0.51072286809347145</v>
+      </c>
+      <c r="L11" s="24">
+        <v>0.3643908282367273</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0.14250397487378808</v>
+      </c>
+      <c r="P11" s="24"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>1.1646726246973662</v>
-      </c>
-      <c r="C12">
-        <v>1.1025041801149138</v>
-      </c>
-      <c r="D12">
-        <v>0.96012725546722311</v>
-      </c>
-      <c r="E12">
-        <v>1.0100343284785016</v>
-      </c>
-      <c r="F12">
-        <v>1.0440160156746467</v>
-      </c>
-      <c r="G12">
-        <v>0.97360106764754017</v>
-      </c>
-      <c r="H12">
-        <v>0.83591689880200892</v>
-      </c>
-      <c r="I12">
-        <v>0.57145596848961611</v>
-      </c>
-      <c r="J12">
-        <v>0.6439321596589046</v>
-      </c>
-      <c r="K12">
-        <v>0.8155214562147709</v>
-      </c>
-      <c r="L12">
-        <v>0.27651351630523757</v>
-      </c>
-      <c r="M12">
-        <v>1.0903153587513512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="24">
+        <v>0.10079740026951309</v>
+      </c>
+      <c r="C12" s="24">
+        <v>6.9182983662414987E-2</v>
+      </c>
+      <c r="D12" s="24">
+        <v>-3.2197190476346243E-3</v>
+      </c>
+      <c r="E12" s="24">
+        <v>2.2159442493504482E-2</v>
+      </c>
+      <c r="F12" s="24">
+        <v>3.9440093847201978E-2</v>
+      </c>
+      <c r="G12" s="24">
+        <v>3.6320964419644707E-3</v>
+      </c>
+      <c r="H12" s="24">
+        <v>-6.6384206898416467E-2</v>
+      </c>
+      <c r="I12" s="24">
+        <v>-0.20087008769133266</v>
+      </c>
+      <c r="J12" s="24">
+        <v>-0.16401388971001291</v>
+      </c>
+      <c r="K12" s="24">
+        <v>-7.6755867685006113E-2</v>
+      </c>
+      <c r="L12" s="24">
+        <v>-0.3508566865374606</v>
+      </c>
+      <c r="M12" s="24">
+        <v>6.29846224338967E-2</v>
+      </c>
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13">
-        <v>1.4179213456683881</v>
-      </c>
-      <c r="C13">
-        <v>1.5699205044586497</v>
-      </c>
-      <c r="D13">
-        <v>1.4636705783049127</v>
-      </c>
-      <c r="E13">
-        <v>1.6315048178382596</v>
-      </c>
-      <c r="F13">
-        <v>1.583908253195037</v>
-      </c>
-      <c r="G13">
-        <v>1.3713699728642101</v>
-      </c>
-      <c r="H13">
-        <v>1.0974148136135864</v>
-      </c>
-      <c r="I13">
-        <v>0.67973497712100606</v>
-      </c>
-      <c r="J13">
-        <v>1.1202582908704928</v>
-      </c>
-      <c r="K13">
-        <v>0.47985347489374169</v>
-      </c>
-      <c r="L13">
-        <v>1.5698571210024626</v>
-      </c>
-      <c r="M13">
-        <v>1.3615742101630124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="24">
+        <v>0.22958155473511249</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.30687743630651876</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.25284633656680028</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0.3381948056362738</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0.3139906031054896</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0.20590886188670535</v>
+      </c>
+      <c r="H13" s="24">
+        <v>6.6594896507913712E-2</v>
+      </c>
+      <c r="I13" s="24">
+        <v>-0.14580714198523162</v>
+      </c>
+      <c r="J13" s="24">
+        <v>7.8211452328234926E-2</v>
+      </c>
+      <c r="K13" s="24">
+        <v>-0.24745255270617089</v>
+      </c>
+      <c r="L13" s="24">
+        <v>0.30684520402206378</v>
+      </c>
+      <c r="M13" s="24">
+        <v>0.20092743883358052</v>
+      </c>
+      <c r="P13" s="24"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
-        <v>1.1487040835674358</v>
-      </c>
-      <c r="C14">
-        <v>1.1352835555570431</v>
-      </c>
-      <c r="D14">
-        <v>1.1848383186959897</v>
-      </c>
-      <c r="E14">
-        <v>1.1747368120192223</v>
-      </c>
-      <c r="F14">
-        <v>1.1490632550033621</v>
-      </c>
-      <c r="G14">
-        <v>1.2769174163646198</v>
-      </c>
-      <c r="H14">
-        <v>1.1593260010202127</v>
-      </c>
-      <c r="I14">
-        <v>1.02883000735369</v>
-      </c>
-      <c r="J14">
-        <v>1.0382298694650256</v>
-      </c>
-      <c r="K14">
-        <v>0.96773231197914089</v>
-      </c>
-      <c r="L14">
-        <v>1.2492594967711883</v>
-      </c>
-      <c r="M14">
-        <v>1.2500205443474282</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="24">
+        <v>9.2676944381001061E-2</v>
+      </c>
+      <c r="C14" s="24">
+        <v>8.5852225402467411E-2</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.11105222738519216</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0.10591532485234606</v>
+      </c>
+      <c r="F14" s="24">
+        <v>9.2859593239035337E-2</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0.15787705908322391</v>
+      </c>
+      <c r="H14" s="24">
+        <v>9.8078490547608602E-2</v>
+      </c>
+      <c r="I14" s="24">
+        <v>3.1717578077632584E-2</v>
+      </c>
+      <c r="J14" s="24">
+        <v>3.6497674456639081E-2</v>
+      </c>
+      <c r="K14" s="24">
+        <v>6.4766779955293926E-4</v>
+      </c>
+      <c r="L14" s="24">
+        <v>0.14381222284057546</v>
+      </c>
+      <c r="M14" s="24">
+        <v>0.1441992371095453</v>
+      </c>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15">
-        <v>1.7630991636306608</v>
-      </c>
-      <c r="C15">
-        <v>1.595963134419057</v>
-      </c>
-      <c r="D15">
-        <v>1.1516687276218336</v>
-      </c>
-      <c r="E15">
-        <v>1.0651882041780645</v>
-      </c>
-      <c r="F15">
-        <v>0.98882550253959156</v>
-      </c>
-      <c r="G15">
-        <v>0.90820180592050959</v>
-      </c>
-      <c r="H15">
-        <v>1.0457309055552793</v>
-      </c>
-      <c r="I15">
-        <v>0.99666620057745126</v>
-      </c>
-      <c r="J15">
-        <v>0.99504106643284485</v>
-      </c>
-      <c r="K15">
-        <v>2.9358989391968446E-2</v>
-      </c>
-      <c r="L15">
-        <v>1.1872957036071119</v>
-      </c>
-      <c r="M15">
-        <v>1.2863502677078156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="24">
+        <v>0.40511426130162853</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0.3201208519757151</v>
+      </c>
+      <c r="D15" s="24">
+        <v>9.4184549933254924E-2</v>
+      </c>
+      <c r="E15" s="24">
+        <v>5.0206751953684202E-2</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1.1374153212366815E-2</v>
+      </c>
+      <c r="G15" s="24">
+        <v>-2.9625282280014632E-2</v>
+      </c>
+      <c r="H15" s="24">
+        <v>4.03121639703286E-2</v>
+      </c>
+      <c r="I15" s="24">
+        <v>1.5361370456166297E-2</v>
+      </c>
+      <c r="J15" s="24">
+        <v>1.4534943669472829E-2</v>
+      </c>
+      <c r="K15" s="24">
+        <v>-0.47654177054826097</v>
+      </c>
+      <c r="L15" s="24">
+        <v>0.11230187728179176</v>
+      </c>
+      <c r="M15" s="24">
+        <v>0.16267393142190859</v>
+      </c>
+      <c r="P15" s="24"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16">
-        <v>1.5599704863275083</v>
-      </c>
-      <c r="C16">
-        <v>1.897290554356565</v>
-      </c>
-      <c r="D16">
-        <v>1.6669334586737592</v>
-      </c>
-      <c r="E16">
-        <v>1.501535041228637</v>
-      </c>
-      <c r="F16">
-        <v>1.5171930121587698</v>
-      </c>
-      <c r="G16">
-        <v>1.5306253464251038</v>
-      </c>
-      <c r="H16">
-        <v>1.2192223229524199</v>
-      </c>
-      <c r="I16">
-        <v>0.84136194981642687</v>
-      </c>
-      <c r="J16">
-        <v>1.1253320204553496</v>
-      </c>
-      <c r="K16">
-        <v>1.6210386873628722</v>
-      </c>
-      <c r="L16">
-        <v>3.2364257572308701</v>
-      </c>
-      <c r="M16">
-        <v>1.44339047508462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="24">
+        <v>0.30181756999397352</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0.47335438794446316</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.35621127393815066</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0.27210148945850587</v>
+      </c>
+      <c r="F16" s="24">
+        <v>0.28006401159544814</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0.28689473438984708</v>
+      </c>
+      <c r="H16" s="24">
+        <v>0.12853746837013152</v>
+      </c>
+      <c r="I16" s="24">
+        <v>-6.3615244085000758E-2</v>
+      </c>
+      <c r="J16" s="24">
+        <v>8.0791587667388837E-2</v>
+      </c>
+      <c r="K16" s="24">
+        <v>0.33287248156438393</v>
+      </c>
+      <c r="L16" s="24">
+        <v>1.1543426044141532</v>
+      </c>
+      <c r="M16" s="24">
+        <v>0.24253332911828748</v>
+      </c>
+      <c r="P16" s="24"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17">
-        <v>0.97215931492189167</v>
-      </c>
-      <c r="C17">
-        <v>1.2807744969995811</v>
-      </c>
-      <c r="D17">
-        <v>1.5164142892749721</v>
-      </c>
-      <c r="E17">
-        <v>1.7695609835010928</v>
-      </c>
-      <c r="F17">
-        <v>1.3443511611885761</v>
-      </c>
-      <c r="G17">
-        <v>1.3287821777046764</v>
-      </c>
-      <c r="H17">
-        <v>1.2395419538559549</v>
-      </c>
-      <c r="I17">
-        <v>1.0884253032675759</v>
-      </c>
-      <c r="J17">
-        <v>1.1191420182947927</v>
-      </c>
-      <c r="K17">
-        <v>3.1794219400438588</v>
-      </c>
-      <c r="L17">
+      <c r="B17" s="24">
+        <v>2.8989243058558907E-3</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0.15983849393815458</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.27966800893147248</v>
+      </c>
+      <c r="E17" s="24">
+        <v>0.40840027990473093</v>
+      </c>
+      <c r="F17" s="24">
+        <v>0.19216903013959868</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0.18425176064194809</v>
+      </c>
+      <c r="H17" s="24">
+        <v>0.13887057676622189</v>
+      </c>
+      <c r="I17" s="24">
+        <v>6.202347563545367E-2</v>
+      </c>
+      <c r="J17" s="24">
+        <v>7.7643796076059354E-2</v>
+      </c>
+      <c r="K17" s="24">
+        <v>1.1253545472599342</v>
+      </c>
+      <c r="L17" s="24">
         <v>1</v>
       </c>
-      <c r="M17">
-        <v>1.4688945314130077</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M17" s="24">
+        <v>0.25550286482650658</v>
+      </c>
+      <c r="P17" s="24"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="B18">
-        <v>0.93341749326228474</v>
-      </c>
-      <c r="C18">
-        <v>1.1573590902446436</v>
-      </c>
-      <c r="D18">
-        <v>1.3173281112150279</v>
-      </c>
-      <c r="E18">
-        <v>1.3992307041367273</v>
-      </c>
-      <c r="F18">
-        <v>1.3690218996469914</v>
-      </c>
-      <c r="G18">
-        <v>1.2877288858581615</v>
-      </c>
-      <c r="H18">
-        <v>1.0861136628077219</v>
-      </c>
-      <c r="I18">
-        <v>0.70044763875892735</v>
-      </c>
-      <c r="J18">
-        <v>0.78052969510416892</v>
-      </c>
-      <c r="K18">
-        <v>0.92683334837081099</v>
-      </c>
-      <c r="L18">
-        <v>1.6041759237354083</v>
-      </c>
-      <c r="M18">
-        <v>1.261764407633678</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="24">
+        <v>-1.6802390377034283E-2</v>
+      </c>
+      <c r="C18" s="24">
+        <v>9.7078260654364951E-2</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.17842704309784282</v>
+      </c>
+      <c r="E18" s="24">
+        <v>0.22007683361808064</v>
+      </c>
+      <c r="F18" s="24">
+        <v>0.20471480008555043</v>
+      </c>
+      <c r="G18" s="24">
+        <v>0.16337499783654824</v>
+      </c>
+      <c r="H18" s="24">
+        <v>6.0847940924323544E-2</v>
+      </c>
+      <c r="I18" s="24">
+        <v>-0.13527416631789563</v>
+      </c>
+      <c r="J18" s="24">
+        <v>-9.4550170260799871E-2</v>
+      </c>
+      <c r="K18" s="24">
+        <v>-2.0150614721371429E-2</v>
+      </c>
+      <c r="L18" s="24">
+        <v>0.32429728818378356</v>
+      </c>
+      <c r="M18" s="24">
+        <v>0.15017132454074822</v>
+      </c>
+      <c r="P18" s="24"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19">
-        <v>1.3088883713957185</v>
-      </c>
-      <c r="C19">
-        <v>1.0218301026160139</v>
-      </c>
-      <c r="D19">
-        <v>1.096845395583147</v>
-      </c>
-      <c r="E19">
-        <v>1.2891191718389918</v>
-      </c>
-      <c r="F19">
-        <v>1.1686045630756035</v>
-      </c>
-      <c r="G19">
-        <v>0.89952605144408737</v>
-      </c>
-      <c r="H19">
-        <v>1.0935787727315642</v>
-      </c>
-      <c r="I19">
-        <v>0.72609530195967908</v>
-      </c>
-      <c r="J19">
-        <v>0.82835045456349443</v>
-      </c>
-      <c r="K19">
-        <v>0.33437148939862621</v>
-      </c>
-      <c r="L19">
-        <v>0.65135322615598523</v>
-      </c>
-      <c r="M19">
-        <v>1.2105839718520983</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="24">
+        <v>0.17413519612474879</v>
+      </c>
+      <c r="C19" s="24">
+        <v>2.8157928064298503E-2</v>
+      </c>
+      <c r="D19" s="24">
+        <v>6.6305331295870504E-2</v>
+      </c>
+      <c r="E19" s="24">
+        <v>0.16408199767378384</v>
+      </c>
+      <c r="F19" s="24">
+        <v>0.10279690240919039</v>
+      </c>
+      <c r="G19" s="24">
+        <v>-3.4037149397499473E-2</v>
+      </c>
+      <c r="H19" s="24">
+        <v>6.4644160963850436E-2</v>
+      </c>
+      <c r="I19" s="24">
+        <v>-0.12223160244368264</v>
+      </c>
+      <c r="J19" s="24">
+        <v>-7.0231958309882353E-2</v>
+      </c>
+      <c r="K19" s="24">
+        <v>-0.32143426688868354</v>
+      </c>
+      <c r="L19" s="24">
+        <v>-0.16024006700166893</v>
+      </c>
+      <c r="M19" s="24">
+        <v>0.12414462192981643</v>
+      </c>
+      <c r="P19" s="24"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20">
-        <v>2.6089879267110589</v>
-      </c>
-      <c r="C20">
-        <v>1.3852288151575542</v>
-      </c>
-      <c r="D20">
-        <v>1.2343287408561865</v>
-      </c>
-      <c r="E20">
-        <v>1.3328454702903256</v>
-      </c>
-      <c r="F20">
-        <v>1.1198559810295423</v>
-      </c>
-      <c r="G20">
-        <v>1.2207435862958649</v>
-      </c>
-      <c r="H20">
-        <v>0.86227216904036208</v>
-      </c>
-      <c r="I20">
-        <v>0.63061311574374124</v>
-      </c>
-      <c r="J20">
-        <v>1.0775181364819124</v>
-      </c>
-      <c r="K20">
-        <v>-7.3132080821484174E-2</v>
-      </c>
-      <c r="L20">
-        <v>-6.5505324015895303E-2</v>
-      </c>
-      <c r="M20">
-        <v>1.2131265982906376</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="24">
+        <v>0.83527267911147007</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.21295647610476351</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.13621951015609243</v>
+      </c>
+      <c r="E20" s="24">
+        <v>0.18631806012011612</v>
+      </c>
+      <c r="F20" s="24">
+        <v>7.800686636822951E-2</v>
+      </c>
+      <c r="G20" s="24">
+        <v>0.12931107390959443</v>
+      </c>
+      <c r="H20" s="24">
+        <v>-5.298180478422345E-2</v>
+      </c>
+      <c r="I20" s="24">
+        <v>-0.17078700114894801</v>
+      </c>
+      <c r="J20" s="24">
+        <v>5.647687209597247E-2</v>
+      </c>
+      <c r="K20" s="24">
+        <v>-0.52866138547505936</v>
+      </c>
+      <c r="L20" s="24">
+        <v>-0.52478296341331521</v>
+      </c>
+      <c r="M20" s="24">
+        <v>0.12543761955978922</v>
+      </c>
+      <c r="P20" s="24"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21">
-        <v>1.8259309621261295</v>
-      </c>
-      <c r="C21">
-        <v>1.727156486233012</v>
-      </c>
-      <c r="D21">
-        <v>1.7290244250164499</v>
-      </c>
-      <c r="E21">
-        <v>1.4339243281157319</v>
-      </c>
-      <c r="F21">
-        <v>1.4230707251108849</v>
-      </c>
-      <c r="G21">
-        <v>1.2608415325232682</v>
-      </c>
-      <c r="H21">
-        <v>1.0316972963575635</v>
-      </c>
-      <c r="I21">
-        <v>0.74198880629549868</v>
-      </c>
-      <c r="J21">
-        <v>0.72271569439266037</v>
-      </c>
-      <c r="K21">
-        <v>0.20071884149135708</v>
-      </c>
-      <c r="L21">
-        <v>1.1671474902451717</v>
-      </c>
-      <c r="M21">
-        <v>1.2798968726244351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="24">
+        <v>0.43706601218023511</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0.3868363908344537</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.38778629066374493</v>
+      </c>
+      <c r="E21" s="24">
+        <v>0.23771952500997459</v>
+      </c>
+      <c r="F21" s="24">
+        <v>0.23220016017162459</v>
+      </c>
+      <c r="G21" s="24">
+        <v>0.14970201638268232</v>
+      </c>
+      <c r="H21" s="24">
+        <v>3.3175675826582797E-2</v>
+      </c>
+      <c r="I21" s="24">
+        <v>-0.1141493048923434</v>
+      </c>
+      <c r="J21" s="24">
+        <v>-0.12395022870673035</v>
+      </c>
+      <c r="K21" s="24">
+        <v>-0.38940042753435039</v>
+      </c>
+      <c r="L21" s="24">
+        <v>0.10205593956545937</v>
+      </c>
+      <c r="M21" s="24">
+        <v>0.15939219706187335</v>
+      </c>
+      <c r="P21" s="24"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
-        <v>1.7422020424848526</v>
-      </c>
-      <c r="C22">
-        <v>1.514007185573538</v>
-      </c>
-      <c r="D22">
-        <v>1.3855491570028799</v>
-      </c>
-      <c r="E22">
-        <v>1.4848380009139064</v>
-      </c>
-      <c r="F22">
-        <v>1.5786048976261857</v>
-      </c>
-      <c r="G22">
-        <v>1.2968385783364493</v>
-      </c>
-      <c r="H22">
-        <v>1.3910409851238745</v>
-      </c>
-      <c r="I22">
-        <v>1.2812437214248393</v>
-      </c>
-      <c r="J22">
-        <v>1.1294823578763955</v>
-      </c>
-      <c r="K22">
-        <v>1.3994188088036155</v>
-      </c>
-      <c r="L22">
-        <v>2.3333102090306501</v>
-      </c>
-      <c r="M22">
-        <v>1.4144608821498241</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="24">
+        <v>0.39448748274492235</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0.27844392845552163</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.2131193790151199</v>
+      </c>
+      <c r="E22" s="24">
+        <v>0.26361057108085018</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0.31129369644335042</v>
+      </c>
+      <c r="G22" s="24">
+        <v>0.16800753473055352</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0.21591212931340714</v>
+      </c>
+      <c r="I22" s="24">
+        <v>0.16007710786137508</v>
+      </c>
+      <c r="J22" s="24">
+        <v>8.2902151912163546E-2</v>
+      </c>
+      <c r="K22" s="24">
+        <v>0.2201724901741467</v>
+      </c>
+      <c r="L22" s="24">
+        <v>0.69508274393489666</v>
+      </c>
+      <c r="M22" s="24">
+        <v>0.22782181092835771</v>
+      </c>
+      <c r="P22" s="24"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>96</v>
       </c>
-      <c r="B23">
-        <v>1.0812110517458193</v>
-      </c>
-      <c r="C23">
-        <v>1.1704958410566442</v>
-      </c>
-      <c r="D23">
-        <v>1.2266067308193924</v>
-      </c>
-      <c r="E23">
-        <v>1.3837817187029762</v>
-      </c>
-      <c r="F23">
-        <v>1.3206520395392543</v>
-      </c>
-      <c r="G23">
-        <v>1.2841650510165734</v>
-      </c>
-      <c r="H23">
-        <v>1.121342630563646</v>
-      </c>
-      <c r="I23">
-        <v>0.9039312691167618</v>
-      </c>
-      <c r="J23">
-        <v>0.84293313074109844</v>
-      </c>
-      <c r="K23">
-        <v>0.6165133668489059</v>
-      </c>
-      <c r="L23">
-        <v>9.6243882855328089E-2</v>
-      </c>
-      <c r="M23">
-        <v>1.3529841025203992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="24">
+        <v>5.8354824205471181E-2</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0.10375867088215181</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.13229264912575714</v>
+      </c>
+      <c r="E23" s="24">
+        <v>0.21222058653099407</v>
+      </c>
+      <c r="F23" s="24">
+        <v>0.18011735488736907</v>
+      </c>
+      <c r="G23" s="24">
+        <v>0.16156268678135655</v>
+      </c>
+      <c r="H23" s="24">
+        <v>7.8762869804306634E-2</v>
+      </c>
+      <c r="I23" s="24">
+        <v>-3.1796971318664484E-2</v>
+      </c>
+      <c r="J23" s="24">
+        <v>-6.2816254040271205E-2</v>
+      </c>
+      <c r="K23" s="24">
+        <v>-0.17795712320380486</v>
+      </c>
+      <c r="L23" s="24">
+        <v>-0.44252890596922878</v>
+      </c>
+      <c r="M23" s="24">
+        <v>0.19655912555926014</v>
+      </c>
+      <c r="P23" s="24"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>97</v>
       </c>
-      <c r="B24">
-        <v>1.476903426624925</v>
-      </c>
-      <c r="C24">
-        <v>0.96270515296826153</v>
-      </c>
-      <c r="D24">
-        <v>0.96767111334744671</v>
-      </c>
-      <c r="E24">
-        <v>1.0058547707450936</v>
-      </c>
-      <c r="F24">
-        <v>0.97692166975984651</v>
-      </c>
-      <c r="G24">
-        <v>0.93304063250196245</v>
-      </c>
-      <c r="H24">
-        <v>0.94251721927583665</v>
-      </c>
-      <c r="I24">
-        <v>0.70635744575536097</v>
-      </c>
-      <c r="J24">
-        <v>0.64908595129648206</v>
-      </c>
-      <c r="K24">
-        <v>0.44299664286733681</v>
-      </c>
-      <c r="L24">
-        <v>0.61986334504988827</v>
-      </c>
-      <c r="M24">
-        <v>1.1586245717556509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="24">
+        <v>0.25957561510187077</v>
+      </c>
+      <c r="C24" s="24">
+        <v>-1.9087850824116394E-3</v>
+      </c>
+      <c r="D24" s="24">
+        <v>6.1654656029472765E-4</v>
+      </c>
+      <c r="E24" s="24">
+        <v>2.0034018891468927E-2</v>
+      </c>
+      <c r="F24" s="24">
+        <v>5.320716758427972E-3</v>
+      </c>
+      <c r="G24" s="24">
+        <v>-1.699403475803361E-2</v>
+      </c>
+      <c r="H24" s="24">
+        <v>-1.2174921712906283E-2</v>
+      </c>
+      <c r="I24" s="24">
+        <v>-0.13226886191133286</v>
+      </c>
+      <c r="J24" s="24">
+        <v>-0.16139304054721212</v>
+      </c>
+      <c r="K24" s="24">
+        <v>-0.26619529671925635</v>
+      </c>
+      <c r="L24" s="24">
+        <v>-0.17625356431340852</v>
+      </c>
+      <c r="M24" s="24">
+        <v>9.7721793880365254E-2</v>
+      </c>
+      <c r="P24" s="24"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25">
-        <v>1.7732364540069574</v>
-      </c>
-      <c r="C25">
-        <v>1.6572816470011582</v>
-      </c>
-      <c r="D25">
-        <v>1.5012039727940121</v>
-      </c>
-      <c r="E25">
-        <v>1.2272773639600525</v>
-      </c>
-      <c r="F25">
-        <v>1.253795946216655</v>
-      </c>
-      <c r="G25">
-        <v>1.1188620180922908</v>
-      </c>
-      <c r="H25">
-        <v>1.0809588454538004</v>
-      </c>
-      <c r="I25">
-        <v>0.8287076501972801</v>
-      </c>
-      <c r="J25">
-        <v>0.85769236003181193</v>
-      </c>
-      <c r="K25">
-        <v>0.58030392101462414</v>
-      </c>
-      <c r="L25">
-        <v>0.39566946647163959</v>
-      </c>
-      <c r="M25">
-        <v>1.2865976727196371</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="24">
+        <v>0.41026936086018856</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0.3513030540642213</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0.27193313177338141</v>
+      </c>
+      <c r="E25" s="24">
+        <v>0.13263368509089601</v>
+      </c>
+      <c r="F25" s="24">
+        <v>0.14611913599642595</v>
+      </c>
+      <c r="G25" s="24">
+        <v>7.7501408034804237E-2</v>
+      </c>
+      <c r="H25" s="24">
+        <v>5.822657015568164E-2</v>
+      </c>
+      <c r="I25" s="24">
+        <v>-7.0050314203252653E-2</v>
+      </c>
+      <c r="J25" s="24">
+        <v>-5.5310767507188469E-2</v>
+      </c>
+      <c r="K25" s="24">
+        <v>-0.19637065298415665</v>
+      </c>
+      <c r="L25" s="24">
+        <v>-0.2902625076887505</v>
+      </c>
+      <c r="M25" s="24">
+        <v>0.1627997438845967</v>
+      </c>
+      <c r="P25" s="24"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B26">
-        <v>1.3610004611084872</v>
-      </c>
-      <c r="C26">
-        <v>1.3252969480768784</v>
-      </c>
-      <c r="D26">
-        <v>1.3505151038108085</v>
-      </c>
-      <c r="E26">
-        <v>1.1462545175309269</v>
-      </c>
-      <c r="F26">
-        <v>1.4503234364727609</v>
-      </c>
-      <c r="G26">
-        <v>1.279962984041106</v>
-      </c>
-      <c r="H26">
-        <v>1.0958443791658461</v>
-      </c>
-      <c r="I26">
-        <v>1.0896969817018429</v>
-      </c>
-      <c r="J26">
-        <v>1.0211539735316586</v>
-      </c>
-      <c r="K26">
-        <v>0.51680462714891695</v>
-      </c>
-      <c r="L26">
-        <v>0.71046491392171207</v>
-      </c>
-      <c r="M26">
-        <v>1.3184112773228536</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="24">
+        <v>0.20063567117300107</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.18247942256650393</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0.19530356971687643</v>
+      </c>
+      <c r="E26" s="24">
+        <v>9.143127060381534E-2</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0.24605893654047281</v>
+      </c>
+      <c r="G26" s="24">
+        <v>0.15942581659157448</v>
+      </c>
+      <c r="H26" s="24">
+        <v>6.5796286067867124E-2</v>
+      </c>
+      <c r="I26" s="24">
+        <v>6.2670160172620504E-2</v>
+      </c>
+      <c r="J26" s="24">
+        <v>2.781409725597522E-2</v>
+      </c>
+      <c r="K26" s="24">
+        <v>-0.22866184418268382</v>
+      </c>
+      <c r="L26" s="24">
+        <v>-0.13018009789795637</v>
+      </c>
+      <c r="M26" s="24">
+        <v>0.17897786377250324</v>
+      </c>
+      <c r="P26" s="24"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>93</v>
       </c>
-      <c r="B27">
-        <v>1.6868805563931379</v>
-      </c>
-      <c r="C27">
-        <v>1.705016172278826</v>
-      </c>
-      <c r="D27">
-        <v>1.4310495964684313</v>
-      </c>
-      <c r="E27">
-        <v>1.0653943957319933</v>
-      </c>
-      <c r="F27">
-        <v>0.96786429266460117</v>
-      </c>
-      <c r="G27">
-        <v>0.99791868706065667</v>
-      </c>
-      <c r="H27">
-        <v>0.95666689878415223</v>
-      </c>
-      <c r="I27">
-        <v>0.74017739998363352</v>
-      </c>
-      <c r="J27">
-        <v>0.72464132198541387</v>
-      </c>
-      <c r="K27">
-        <v>2.1898306553560074</v>
-      </c>
-      <c r="L27">
-        <v>1.2983482366884693</v>
-      </c>
-      <c r="M27">
-        <v>1.1411809177427557</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="24">
+        <v>0.36635493864841306</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0.37557741348894147</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0.23625764246583525</v>
+      </c>
+      <c r="E27" s="24">
+        <v>5.0311606204591776E-2</v>
+      </c>
+      <c r="F27" s="24">
+        <v>7.1478371989256958E-4</v>
+      </c>
+      <c r="G27" s="24">
+        <v>1.5998295342107543E-2</v>
+      </c>
+      <c r="H27" s="24">
+        <v>-4.9794085255121896E-3</v>
+      </c>
+      <c r="I27" s="24">
+        <v>-0.11507045635708822</v>
+      </c>
+      <c r="J27" s="24">
+        <v>-0.12297099248236758</v>
+      </c>
+      <c r="K27" s="24">
+        <v>0.62211932310401818</v>
+      </c>
+      <c r="L27" s="24">
+        <v>0.16877523880286385</v>
+      </c>
+      <c r="M27" s="24">
+        <v>8.8851201269955798E-2</v>
+      </c>
+      <c r="P27" s="24"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
-        <v>1.6098328114752238</v>
-      </c>
-      <c r="C28">
-        <v>1.7534788922956961</v>
-      </c>
-      <c r="D28">
-        <v>1.7123485664958717</v>
-      </c>
-      <c r="E28">
-        <v>1.6275482383327453</v>
-      </c>
-      <c r="F28">
-        <v>1.451514080853036</v>
-      </c>
-      <c r="G28">
-        <v>1.3044307269665527</v>
-      </c>
-      <c r="H28">
-        <v>1.3600342796982245</v>
-      </c>
-      <c r="I28">
-        <v>0.93103192889621778</v>
-      </c>
-      <c r="J28">
-        <v>1.0644912920467209</v>
-      </c>
-      <c r="K28">
-        <v>0.86514450150535205</v>
-      </c>
-      <c r="L28">
-        <v>1.0046350293348654</v>
-      </c>
-      <c r="M28">
-        <v>1.5398179780113073</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="24">
+        <v>0.32717397597784481</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0.40022208058358744</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0.37930614382894073</v>
+      </c>
+      <c r="E28" s="24">
+        <v>0.33618277278477576</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0.24666441296378921</v>
+      </c>
+      <c r="G28" s="24">
+        <v>0.17186835755388746</v>
+      </c>
+      <c r="H28" s="24">
+        <v>0.20014434053368343</v>
+      </c>
+      <c r="I28" s="24">
+        <v>-1.8015517490289738E-2</v>
+      </c>
+      <c r="J28" s="24">
+        <v>4.9852352376747629E-2</v>
+      </c>
+      <c r="K28" s="24">
+        <v>-5.1521142292308378E-2</v>
+      </c>
+      <c r="L28" s="24">
+        <v>1.9413745803491964E-2</v>
+      </c>
+      <c r="M28" s="24">
+        <v>0.29156944817163327</v>
+      </c>
+      <c r="P28" s="24"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29">
-        <v>1.5103901196088976</v>
-      </c>
-      <c r="C29">
-        <v>1.2326374114015992</v>
-      </c>
-      <c r="D29">
-        <v>1.206945434104898</v>
-      </c>
-      <c r="E29">
-        <v>1.2356247849964641</v>
-      </c>
-      <c r="F29">
-        <v>1.2802415757849694</v>
-      </c>
-      <c r="G29">
-        <v>1.1127225097154991</v>
-      </c>
-      <c r="H29">
-        <v>1.033116017143735</v>
-      </c>
-      <c r="I29">
-        <v>0.90856547329126669</v>
-      </c>
-      <c r="J29">
-        <v>0.84316592272747659</v>
-      </c>
-      <c r="K29">
-        <v>0.78723287618786519</v>
-      </c>
-      <c r="L29">
-        <v>0.43384014682087524</v>
-      </c>
-      <c r="M29">
-        <v>1.2760698579251968</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="24">
+        <v>0.27660454786510269</v>
+      </c>
+      <c r="C29" s="24">
+        <v>0.1353594211775713</v>
+      </c>
+      <c r="D29" s="24">
+        <v>0.12229432232921957</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0.1368785853455575</v>
+      </c>
+      <c r="F29" s="24">
+        <v>0.15956748839168064</v>
+      </c>
+      <c r="G29" s="24">
+        <v>7.4379293964068102E-2</v>
+      </c>
+      <c r="H29" s="24">
+        <v>3.389713556848932E-2</v>
+      </c>
+      <c r="I29" s="24">
+        <v>-2.9440347111654771E-2</v>
+      </c>
+      <c r="J29" s="24">
+        <v>-6.2697872715314837E-2</v>
+      </c>
+      <c r="K29" s="24">
+        <v>-9.1141412637923636E-2</v>
+      </c>
+      <c r="L29" s="24">
+        <v>-0.27085163455460559</v>
+      </c>
+      <c r="M29" s="24">
+        <v>0.15744605158765693</v>
+      </c>
+      <c r="P29" s="24"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
-        <v>1.354103365720057</v>
-      </c>
-      <c r="C30">
-        <v>1.3031741940862815</v>
-      </c>
-      <c r="D30">
-        <v>1.1358016845541259</v>
-      </c>
-      <c r="E30">
-        <v>1.294256085363352</v>
-      </c>
-      <c r="F30">
-        <v>1.4384482614094007</v>
-      </c>
-      <c r="G30">
-        <v>1.2820622999000433</v>
-      </c>
-      <c r="H30">
-        <v>1.2238123306397601</v>
-      </c>
-      <c r="I30">
-        <v>0.85051070548072794</v>
-      </c>
-      <c r="J30">
-        <v>0.82664232453564646</v>
-      </c>
-      <c r="K30">
-        <v>0.47622229620897749</v>
-      </c>
-      <c r="L30">
-        <v>0.91370683202794101</v>
-      </c>
-      <c r="M30">
-        <v>1.3509434322295475</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="24">
+        <v>0.19712830262850514</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0.17122937496031904</v>
+      </c>
+      <c r="D30" s="24">
+        <v>8.611570868695384E-2</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0.16669426383750244</v>
+      </c>
+      <c r="F30" s="24">
+        <v>0.24002007334779055</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0.160493378223526</v>
+      </c>
+      <c r="H30" s="24">
+        <v>0.13087161741040382</v>
+      </c>
+      <c r="I30" s="24">
+        <v>-5.8962842453427672E-2</v>
+      </c>
+      <c r="J30" s="24">
+        <v>-7.1100590856219739E-2</v>
+      </c>
+      <c r="K30" s="24">
+        <v>-0.24929911001488234</v>
+      </c>
+      <c r="L30" s="24">
+        <v>-2.6825820431448228E-2</v>
+      </c>
+      <c r="M30" s="24">
+        <v>0.19552138686133982</v>
+      </c>
+      <c r="P30" s="24"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
-      <c r="B31">
-        <v>1.8643552585416341</v>
-      </c>
-      <c r="C31">
-        <v>1.483128934311319</v>
-      </c>
-      <c r="D31">
-        <v>1.530004045850595</v>
-      </c>
-      <c r="E31">
-        <v>1.4205984413496742</v>
-      </c>
-      <c r="F31">
-        <v>1.3389633430473227</v>
-      </c>
-      <c r="G31">
-        <v>1.1820260662855728</v>
-      </c>
-      <c r="H31">
-        <v>1.1125091881952549</v>
-      </c>
-      <c r="I31">
-        <v>0.97058595462315478</v>
-      </c>
-      <c r="J31">
-        <v>0.74559908418929421</v>
-      </c>
-      <c r="K31">
-        <v>-0.37229133854027757</v>
-      </c>
-      <c r="L31">
-        <v>9.640994646466682</v>
-      </c>
-      <c r="M31">
-        <v>1.3349282242223253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="24">
+        <v>0.4566058562743443</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.26274146225970524</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0.28657878543322313</v>
+      </c>
+      <c r="E31" s="24">
+        <v>0.23094293378735797</v>
+      </c>
+      <c r="F31" s="24">
+        <v>0.18942917186479566</v>
+      </c>
+      <c r="G31" s="24">
+        <v>0.10962211730435674</v>
+      </c>
+      <c r="H31" s="24">
+        <v>7.427081392314773E-2</v>
+      </c>
+      <c r="I31" s="24">
+        <v>2.0988259876268131E-3</v>
+      </c>
+      <c r="J31" s="24">
+        <v>-0.11231337622839763</v>
+      </c>
+      <c r="K31" s="24">
+        <v>-0.68079234948604694</v>
+      </c>
+      <c r="L31" s="24">
+        <v>4.4112474604560381</v>
+      </c>
+      <c r="M31" s="24">
+        <v>0.18737719954267296</v>
+      </c>
+      <c r="P31" s="24"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
-      <c r="B32">
-        <v>1.0489658813865148</v>
-      </c>
-      <c r="C32">
-        <v>0.94705512347471132</v>
-      </c>
-      <c r="D32">
-        <v>0.91828405434991878</v>
-      </c>
-      <c r="E32">
-        <v>1.1072808879608718</v>
-      </c>
-      <c r="F32">
-        <v>1.0586065573612469</v>
-      </c>
-      <c r="G32">
-        <v>1.0465426691667912</v>
-      </c>
-      <c r="H32">
-        <v>0.95985419827121554</v>
-      </c>
-      <c r="I32">
-        <v>0.64311145680066784</v>
-      </c>
-      <c r="J32">
-        <v>0.75378336689699843</v>
-      </c>
-      <c r="K32">
-        <v>1.2659382599125162</v>
-      </c>
-      <c r="L32">
-        <v>0.54647226126669313</v>
-      </c>
-      <c r="M32">
-        <v>1.079406467600772</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="24">
+        <v>4.1957240895277727E-2</v>
+      </c>
+      <c r="C32" s="24">
+        <v>-9.8672687737040733E-3</v>
+      </c>
+      <c r="D32" s="24">
+        <v>-2.4498173111940365E-2</v>
+      </c>
+      <c r="E32" s="24">
+        <v>7.1612075026478733E-2</v>
+      </c>
+      <c r="F32" s="24">
+        <v>4.6859797951132591E-2</v>
+      </c>
+      <c r="G32" s="24">
+        <v>4.0724968781084142E-2</v>
+      </c>
+      <c r="H32" s="24">
+        <v>-3.3585763732462384E-3</v>
+      </c>
+      <c r="I32" s="24">
+        <v>-0.1644312403811645</v>
+      </c>
+      <c r="J32" s="24">
+        <v>-0.10815143643901681</v>
+      </c>
+      <c r="K32" s="24">
+        <v>0.15229384675737972</v>
+      </c>
+      <c r="L32" s="24">
+        <v>-0.21357501112701063</v>
+      </c>
+      <c r="M32" s="24">
+        <v>5.743714200596832E-2</v>
+      </c>
+      <c r="P32" s="24"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
-      <c r="B33">
-        <v>1.0038500629788205</v>
-      </c>
-      <c r="C33">
-        <v>1.1184924572632513</v>
-      </c>
-      <c r="D33">
-        <v>1.2357103909596459</v>
-      </c>
-      <c r="E33">
-        <v>1.2650102048153804</v>
-      </c>
-      <c r="F33">
-        <v>1.1545935314741151</v>
-      </c>
-      <c r="G33">
-        <v>0.96579507881497617</v>
-      </c>
-      <c r="H33">
-        <v>0.98949703411370338</v>
-      </c>
-      <c r="I33">
-        <v>0.41767701902280774</v>
-      </c>
-      <c r="J33">
-        <v>0.36928529415490863</v>
-      </c>
-      <c r="K33">
-        <v>0.99452312538011267</v>
-      </c>
-      <c r="L33">
-        <v>0.98460072396628917</v>
-      </c>
-      <c r="M33">
-        <v>1.0154778873827595</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B33" s="24">
+        <v>1.9014568156870259E-2</v>
+      </c>
+      <c r="C33" s="24">
+        <v>7.7313475875822588E-2</v>
+      </c>
+      <c r="D33" s="24">
+        <v>0.13692211840484919</v>
+      </c>
+      <c r="E33" s="24">
+        <v>0.15182190442920587</v>
+      </c>
+      <c r="F33" s="24">
+        <v>9.5671895613223493E-2</v>
+      </c>
+      <c r="G33" s="24">
+        <v>-3.3747018690188425E-4</v>
+      </c>
+      <c r="H33" s="24">
+        <v>1.1715646056387233E-2</v>
+      </c>
+      <c r="I33" s="24">
+        <v>-0.27907104328058974</v>
+      </c>
+      <c r="J33" s="24">
+        <v>-0.30367960732920118</v>
+      </c>
+      <c r="K33" s="24">
+        <v>1.4271555960017201E-2</v>
+      </c>
+      <c r="L33" s="24">
+        <v>9.2257335311894083E-3</v>
+      </c>
+      <c r="M33" s="24">
+        <v>2.4927646526601108E-2</v>
+      </c>
+      <c r="P33" s="24"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
-      <c r="B34">
-        <v>1.3753375460105592</v>
-      </c>
-      <c r="C34">
-        <v>1.3969427625130886</v>
-      </c>
-      <c r="D34">
-        <v>1.4690829225508302</v>
-      </c>
-      <c r="E34">
-        <v>1.3343373128598937</v>
-      </c>
-      <c r="F34">
-        <v>1.4127822908930019</v>
-      </c>
-      <c r="G34">
-        <v>1.3099629446734271</v>
-      </c>
-      <c r="H34">
-        <v>1.1575778132799255</v>
-      </c>
-      <c r="I34">
-        <v>0.83205117051350397</v>
-      </c>
-      <c r="J34">
-        <v>0.826275418116308</v>
-      </c>
-      <c r="K34">
-        <v>2.8288988990485559E-2</v>
-      </c>
-      <c r="L34">
-        <v>0.12535348089034956</v>
-      </c>
-      <c r="M34">
-        <v>1.312530486398336</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B34" s="24">
+        <v>0.20792648531624849</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0.21891335043705146</v>
+      </c>
+      <c r="D34" s="24">
+        <v>0.25559866706116435</v>
+      </c>
+      <c r="E34" s="24">
+        <v>0.18707670436195445</v>
+      </c>
+      <c r="F34" s="24">
+        <v>0.22696819968454054</v>
+      </c>
+      <c r="G34" s="24">
+        <v>0.17468164710167935</v>
+      </c>
+      <c r="H34" s="24">
+        <v>9.7189487518820311E-2</v>
+      </c>
+      <c r="I34" s="24">
+        <v>-6.8350039330343337E-2</v>
+      </c>
+      <c r="J34" s="24">
+        <v>-7.1287173172613308E-2</v>
+      </c>
+      <c r="K34" s="24">
+        <v>-0.47708589608798518</v>
+      </c>
+      <c r="L34" s="24">
+        <v>-0.42772585008251152</v>
+      </c>
+      <c r="M34" s="24">
+        <v>0.17598731486114411</v>
+      </c>
+      <c r="P34" s="24"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35">
-        <v>0.60833937158278106</v>
-      </c>
-      <c r="C35">
-        <v>0.72794176390802945</v>
-      </c>
-      <c r="D35">
-        <v>0.79304378679228615</v>
-      </c>
-      <c r="E35">
-        <v>0.9374373988209741</v>
-      </c>
-      <c r="F35">
-        <v>0.98746730878003119</v>
-      </c>
-      <c r="G35">
-        <v>0.97060552147644008</v>
-      </c>
-      <c r="H35">
-        <v>0.87002950293410941</v>
-      </c>
-      <c r="I35">
-        <v>0.70192091954956248</v>
-      </c>
-      <c r="J35">
-        <v>0.84559743663410347</v>
-      </c>
-      <c r="K35">
-        <v>0.19020349299039382</v>
-      </c>
-      <c r="L35">
-        <v>-0.88426878923632934</v>
-      </c>
-      <c r="M35">
-        <v>0.96654604261795607</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="24">
+        <v>-0.18211383153748353</v>
+      </c>
+      <c r="C35" s="24">
+        <v>-0.1212926241939231</v>
+      </c>
+      <c r="D35" s="24">
+        <v>-8.8186399850509967E-2</v>
+      </c>
+      <c r="E35" s="24">
+        <v>-1.4758154432140336E-2</v>
+      </c>
+      <c r="F35" s="24">
+        <v>1.0683473179493246E-2</v>
+      </c>
+      <c r="G35" s="24">
+        <v>2.1087762872619522E-3</v>
+      </c>
+      <c r="H35" s="24">
+        <v>-4.9036980571160994E-2</v>
+      </c>
+      <c r="I35" s="24">
+        <v>-0.13452496126688931</v>
+      </c>
+      <c r="J35" s="24">
+        <v>-6.1461378957969645E-2</v>
+      </c>
+      <c r="K35" s="24">
+        <v>-0.39474778036762542</v>
+      </c>
+      <c r="L35" s="24">
+        <v>-0.94114739823232973</v>
+      </c>
+      <c r="M35" s="24">
+        <v>4.4416197480306504E-5</v>
+      </c>
+      <c r="P35" s="24"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
-      <c r="B36">
-        <v>1.5165729768787295</v>
-      </c>
-      <c r="C36">
-        <v>0.67118833001174194</v>
-      </c>
-      <c r="D36">
-        <v>0.73647630285428667</v>
-      </c>
-      <c r="E36">
-        <v>0.66832068653673116</v>
-      </c>
-      <c r="F36">
-        <v>0.74203112168719565</v>
-      </c>
-      <c r="G36">
-        <v>0.81817666976385506</v>
-      </c>
-      <c r="H36">
-        <v>0.61407497652766785</v>
-      </c>
-      <c r="I36">
-        <v>0.40387687430680791</v>
-      </c>
-      <c r="J36">
-        <v>0.35913332312030688</v>
-      </c>
-      <c r="K36">
-        <v>1.0432797177593722</v>
-      </c>
-      <c r="L36">
-        <v>0.70364644941659016</v>
-      </c>
-      <c r="M36">
-        <v>0.66999276030069976</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="24">
+        <v>0.27974870607693397</v>
+      </c>
+      <c r="C36" s="24">
+        <v>-0.15015335434619514</v>
+      </c>
+      <c r="D36" s="24">
+        <v>-0.11695256917712703</v>
+      </c>
+      <c r="E36" s="24">
+        <v>-0.15161163235376818</v>
+      </c>
+      <c r="F36" s="24">
+        <v>-0.11412778631598229</v>
+      </c>
+      <c r="G36" s="24">
+        <v>-7.5405616317365365E-2</v>
+      </c>
+      <c r="H36" s="24">
+        <v>-0.17919711381293296</v>
+      </c>
+      <c r="I36" s="24">
+        <v>-0.28608880811643383</v>
+      </c>
+      <c r="J36" s="24">
+        <v>-0.30884217241872058</v>
+      </c>
+      <c r="K36" s="24">
+        <v>3.9065665482510378E-2</v>
+      </c>
+      <c r="L36" s="24">
+        <v>-0.13364748040902649</v>
+      </c>
+      <c r="M36" s="24">
+        <v>-0.15076133543984438</v>
+      </c>
+      <c r="P36" s="24"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
-      <c r="B37">
-        <v>0.99873475730332217</v>
-      </c>
-      <c r="C37">
-        <v>1.1860945547319099</v>
-      </c>
-      <c r="D37">
-        <v>1.0275217934756609</v>
-      </c>
-      <c r="E37">
-        <v>1.1575446770219626</v>
-      </c>
-      <c r="F37">
-        <v>1.0835243802143384</v>
-      </c>
-      <c r="G37">
-        <v>1.0265900910370156</v>
-      </c>
-      <c r="H37">
-        <v>0.80176876004822184</v>
-      </c>
-      <c r="I37">
-        <v>0.60365480346839007</v>
-      </c>
-      <c r="J37">
-        <v>0.68029962915624442</v>
-      </c>
-      <c r="K37">
-        <v>1.4396049192486677</v>
-      </c>
-      <c r="L37">
-        <v>0.57214189377148705</v>
-      </c>
-      <c r="M37">
-        <v>1.0282923474533552</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="24">
+        <v>1.6413290196901711E-2</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0.1116910590249925</v>
+      </c>
+      <c r="D37" s="24">
+        <v>3.105231423149685E-2</v>
+      </c>
+      <c r="E37" s="24">
+        <v>9.7172636792200437E-2</v>
+      </c>
+      <c r="F37" s="24">
+        <v>5.9531217316864268E-2</v>
+      </c>
+      <c r="G37" s="24">
+        <v>3.0578517126759689E-2</v>
+      </c>
+      <c r="H37" s="24">
+        <v>-8.3749503588241236E-2</v>
+      </c>
+      <c r="I37" s="24">
+        <v>-0.1844960672357929</v>
+      </c>
+      <c r="J37" s="24">
+        <v>-0.14552000041686888</v>
+      </c>
+      <c r="K37" s="24">
+        <v>0.24060826665145205</v>
+      </c>
+      <c r="L37" s="24">
+        <v>-0.20052127523884081</v>
+      </c>
+      <c r="M37" s="24">
+        <v>3.1444162775122263E-2</v>
+      </c>
+      <c r="P37" s="24"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>98</v>
       </c>
-      <c r="B38">
-        <v>1.1244141892920729</v>
-      </c>
-      <c r="C38">
-        <v>1.603154117591403</v>
-      </c>
-      <c r="D38">
-        <v>1.3245106260231128</v>
-      </c>
-      <c r="E38">
-        <v>1.4409122738098687</v>
-      </c>
-      <c r="F38">
-        <v>1.2629714860567716</v>
-      </c>
-      <c r="G38">
-        <v>1.2118617862179355</v>
-      </c>
-      <c r="H38">
-        <v>1.0323478848014256</v>
-      </c>
-      <c r="I38">
-        <v>0.79459651658109076</v>
-      </c>
-      <c r="J38">
-        <v>1.0774090994744527</v>
-      </c>
-      <c r="K38">
-        <v>0.92538027149794533</v>
-      </c>
-      <c r="L38">
-        <v>0.76910356357992649</v>
-      </c>
-      <c r="M38">
-        <v>1.434210065349304</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="24">
+        <v>8.0324844499441023E-2</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0.32377767079034159</v>
+      </c>
+      <c r="D38" s="24">
+        <v>0.18207955550915605</v>
+      </c>
+      <c r="E38" s="24">
+        <v>0.24127309351061824</v>
+      </c>
+      <c r="F38" s="24">
+        <v>0.15078515814075918</v>
+      </c>
+      <c r="G38" s="24">
+        <v>0.1247944267621463</v>
+      </c>
+      <c r="H38" s="24">
+        <v>3.3506518495112901E-2</v>
+      </c>
+      <c r="I38" s="24">
+        <v>-8.7396792731476783E-2</v>
+      </c>
+      <c r="J38" s="24">
+        <v>5.642142368637211E-2</v>
+      </c>
+      <c r="K38" s="24">
+        <v>-2.0889545507390792E-2</v>
+      </c>
+      <c r="L38" s="24">
+        <v>-0.10036068208301233</v>
+      </c>
+      <c r="M38" s="24">
+        <v>0.23786483049417906</v>
+      </c>
+      <c r="P38" s="24"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>92</v>
       </c>
-      <c r="B39">
-        <v>2.0550153983074337</v>
-      </c>
-      <c r="C39">
-        <v>0.82937439011023062</v>
-      </c>
-      <c r="D39">
-        <v>1.0157393953610987</v>
-      </c>
-      <c r="E39">
-        <v>0.97020798565649879</v>
-      </c>
-      <c r="F39">
-        <v>0.95477666087609947</v>
-      </c>
-      <c r="G39">
-        <v>0.78008576366005922</v>
-      </c>
-      <c r="H39">
-        <v>0.72017091394331445</v>
-      </c>
-      <c r="I39">
-        <v>0.61256358663304766</v>
-      </c>
-      <c r="J39">
-        <v>0.83674530293534</v>
-      </c>
-      <c r="K39">
-        <v>0.82544084081673874</v>
-      </c>
-      <c r="L39">
-        <v>0.59463625093250483</v>
-      </c>
-      <c r="M39">
-        <v>1.0867031612721056</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="24">
+        <v>0.55356194274887827</v>
+      </c>
+      <c r="C39" s="24">
+        <v>-6.9711258054781067E-2</v>
+      </c>
+      <c r="D39" s="24">
+        <v>2.5060630747596534E-2</v>
+      </c>
+      <c r="E39" s="24">
+        <v>1.9066180522880429E-3</v>
+      </c>
+      <c r="F39" s="24">
+        <v>-5.9406480918721988E-3</v>
+      </c>
+      <c r="G39" s="24">
+        <v>-9.4775921986025344E-2</v>
+      </c>
+      <c r="H39" s="24">
+        <v>-0.12524432171226668</v>
+      </c>
+      <c r="I39" s="24">
+        <v>-0.17996569842374627</v>
+      </c>
+      <c r="J39" s="24">
+        <v>-6.596293991054071E-2</v>
+      </c>
+      <c r="K39" s="24">
+        <v>-7.1711579390536448E-2</v>
+      </c>
+      <c r="L39" s="24">
+        <v>-0.18908225688517902</v>
+      </c>
+      <c r="M39" s="24">
+        <v>6.1147717606327444E-2</v>
+      </c>
+      <c r="P39" s="24"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>25</v>
       </c>
-      <c r="B40">
-        <v>0.90275850215304865</v>
-      </c>
-      <c r="C40">
-        <v>1.3525623996637031</v>
-      </c>
-      <c r="D40">
-        <v>1.2759319132888076</v>
-      </c>
-      <c r="E40">
-        <v>1.3071140664750309</v>
-      </c>
-      <c r="F40">
-        <v>1.3100844239180487</v>
-      </c>
-      <c r="G40">
-        <v>1.3075142262496267</v>
-      </c>
-      <c r="H40">
-        <v>1.1313003756991258</v>
-      </c>
-      <c r="I40">
-        <v>0.96996476503290741</v>
-      </c>
-      <c r="J40">
-        <v>0.95577790750365821</v>
-      </c>
-      <c r="K40">
-        <v>0.89805098878945466</v>
-      </c>
-      <c r="L40">
-        <v>0.11060849875669468</v>
-      </c>
-      <c r="M40">
-        <v>1.3024037968504198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="24">
+        <v>-3.2393356568816423E-2</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0.19634467770093672</v>
+      </c>
+      <c r="D40" s="24">
+        <v>0.15737590282918609</v>
+      </c>
+      <c r="E40" s="24">
+        <v>0.17323291176927891</v>
+      </c>
+      <c r="F40" s="24">
+        <v>0.1747434227416261</v>
+      </c>
+      <c r="G40" s="24">
+        <v>0.17343640435958638</v>
+      </c>
+      <c r="H40" s="24">
+        <v>8.3826665517625951E-2</v>
+      </c>
+      <c r="I40" s="24">
+        <v>1.7829334696463353E-3</v>
+      </c>
+      <c r="J40" s="24">
+        <v>-5.4314857954258508E-3</v>
+      </c>
+      <c r="K40" s="24">
+        <v>-3.4787260576866146E-2</v>
+      </c>
+      <c r="L40" s="24">
+        <v>-0.43522409153230895</v>
+      </c>
+      <c r="M40" s="24">
+        <v>0.17083760612435936</v>
+      </c>
+      <c r="P40" s="24"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="B41">
-        <v>1.3267384288487205</v>
-      </c>
-      <c r="C41">
-        <v>1.0480559234931124</v>
-      </c>
-      <c r="D41">
-        <v>1.1506574223387045</v>
-      </c>
-      <c r="E41">
-        <v>1.1311000330622707</v>
-      </c>
-      <c r="F41">
-        <v>1.0589496754831169</v>
-      </c>
-      <c r="G41">
-        <v>1.0124659374271952</v>
-      </c>
-      <c r="H41">
-        <v>0.87387644525762609</v>
-      </c>
-      <c r="I41">
-        <v>0.63748268522342544</v>
-      </c>
-      <c r="J41">
-        <v>0.73269490738506815</v>
-      </c>
-      <c r="K41">
-        <v>0.94658850381003912</v>
-      </c>
-      <c r="L41">
-        <v>0.35134417105865512</v>
-      </c>
-      <c r="M41">
-        <v>1.1387181593346865</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="24">
+        <v>0.18321245640639217</v>
+      </c>
+      <c r="C41" s="24">
+        <v>4.1494501508275911E-2</v>
+      </c>
+      <c r="D41" s="24">
+        <v>9.3670272525278292E-2</v>
+      </c>
+      <c r="E41" s="24">
+        <v>8.3724785606873228E-2</v>
+      </c>
+      <c r="F41" s="24">
+        <v>4.7034283243841846E-2</v>
+      </c>
+      <c r="G41" s="24">
+        <v>2.3395984582434977E-2</v>
+      </c>
+      <c r="H41" s="24">
+        <v>-4.7080701335031352E-2</v>
+      </c>
+      <c r="I41" s="24">
+        <v>-0.16729363030943628</v>
+      </c>
+      <c r="J41" s="24">
+        <v>-0.11887551597952803</v>
+      </c>
+      <c r="K41" s="24">
+        <v>-1.0104558102319024E-2</v>
+      </c>
+      <c r="L41" s="24">
+        <v>-0.31280317707223892</v>
+      </c>
+      <c r="M41" s="24">
+        <v>8.759881879781474E-2</v>
+      </c>
+      <c r="P41" s="24"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>99</v>
       </c>
-      <c r="B42">
-        <v>1.3205055056350974</v>
-      </c>
-      <c r="C42">
-        <v>1.6528689680341595</v>
-      </c>
-      <c r="D42">
-        <v>0.79855879965765464</v>
-      </c>
-      <c r="E42">
-        <v>1.2990319413817999</v>
-      </c>
-      <c r="F42">
-        <v>0.78459035020120249</v>
-      </c>
-      <c r="G42">
-        <v>0.97331692027488115</v>
-      </c>
-      <c r="H42">
-        <v>0.76817875892189846</v>
-      </c>
-      <c r="I42">
-        <v>0.4907292711965287</v>
-      </c>
-      <c r="J42">
-        <v>0.49287994677939045</v>
-      </c>
-      <c r="K42">
-        <v>0.65067100136506806</v>
-      </c>
-      <c r="L42">
-        <v>1.0269900845447859</v>
-      </c>
-      <c r="M42">
-        <v>0.93002282255985824</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="24">
+        <v>0.18004283824272402</v>
+      </c>
+      <c r="C42" s="24">
+        <v>0.34905908170568722</v>
+      </c>
+      <c r="D42" s="24">
+        <v>-8.5381859452398054E-2</v>
+      </c>
+      <c r="E42" s="24">
+        <v>0.1691229220231272</v>
+      </c>
+      <c r="F42" s="24">
+        <v>-9.2485212020368204E-2</v>
+      </c>
+      <c r="G42" s="24">
+        <v>3.4875994471082494E-3</v>
+      </c>
+      <c r="H42" s="24">
+        <v>-0.1008309714707466</v>
+      </c>
+      <c r="I42" s="24">
+        <v>-0.24192190194661675</v>
+      </c>
+      <c r="J42" s="24">
+        <v>-0.24082822243895055</v>
+      </c>
+      <c r="K42" s="24">
+        <v>-0.16058699764959813</v>
+      </c>
+      <c r="L42" s="24">
+        <v>3.0781925165672561E-2</v>
+      </c>
+      <c r="M42" s="24">
+        <v>-1.85286766714917E-2</v>
+      </c>
+      <c r="P42" s="24"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B43">
-        <v>1.2138200641817252</v>
-      </c>
-      <c r="C43">
-        <v>1.5659582136285375</v>
-      </c>
-      <c r="D43">
-        <v>1.6104815771243015</v>
-      </c>
-      <c r="E43">
-        <v>1.5279738291982556</v>
-      </c>
-      <c r="F43">
-        <v>1.4983087428273778</v>
-      </c>
-      <c r="G43">
-        <v>1.4201032479995299</v>
-      </c>
-      <c r="H43">
-        <v>1.4292794519389656</v>
-      </c>
-      <c r="I43">
-        <v>1.4791209000240524</v>
-      </c>
-      <c r="J43">
-        <v>1.299978976059341</v>
-      </c>
-      <c r="K43">
-        <v>1.222098852525346</v>
-      </c>
-      <c r="L43">
-        <v>3.2441272732144295</v>
-      </c>
-      <c r="M43">
-        <v>1.5435189764916455</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="24">
+        <v>0.12579026662585152</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0.30486249908454088</v>
+      </c>
+      <c r="D43" s="24">
+        <v>0.32750389170354893</v>
+      </c>
+      <c r="E43" s="24">
+        <v>0.28554636270685757</v>
+      </c>
+      <c r="F43" s="24">
+        <v>0.27046082525271331</v>
+      </c>
+      <c r="G43" s="24">
+        <v>0.23069111392958827</v>
+      </c>
+      <c r="H43" s="24">
+        <v>0.23535747378725297</v>
+      </c>
+      <c r="I43" s="24">
+        <v>0.26070326319289217</v>
+      </c>
+      <c r="J43" s="24">
+        <v>0.16960451600602688</v>
+      </c>
+      <c r="K43" s="24">
+        <v>0.13000026521042413</v>
+      </c>
+      <c r="L43" s="24">
+        <v>1.1582590436373923</v>
+      </c>
+      <c r="M43" s="24">
+        <v>0.29345151082585441</v>
+      </c>
+      <c r="P43" s="24"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>26</v>
       </c>
-      <c r="B44">
-        <v>1.0549933092008406</v>
-      </c>
-      <c r="C44">
-        <v>1.408071099907553</v>
-      </c>
-      <c r="D44">
-        <v>1.1942406762990967</v>
-      </c>
-      <c r="E44">
-        <v>1.3658596520556483</v>
-      </c>
-      <c r="F44">
-        <v>1.4295191264548319</v>
-      </c>
-      <c r="G44">
-        <v>1.55421734105829</v>
-      </c>
-      <c r="H44">
-        <v>1.1267532482193106</v>
-      </c>
-      <c r="I44">
-        <v>0.70103140557081345</v>
-      </c>
-      <c r="J44">
-        <v>0.79947584446897957</v>
-      </c>
-      <c r="K44">
-        <v>0.53473532898914522</v>
-      </c>
-      <c r="L44">
-        <v>0.54792025655954102</v>
-      </c>
-      <c r="M44">
-        <v>1.2241654593032116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="24">
+        <v>4.5022358822405184E-2</v>
+      </c>
+      <c r="C44" s="24">
+        <v>0.22457242550151335</v>
+      </c>
+      <c r="D44" s="24">
+        <v>0.11583359279251408</v>
+      </c>
+      <c r="E44" s="24">
+        <v>0.2031067075325042</v>
+      </c>
+      <c r="F44" s="24">
+        <v>0.23547935507358062</v>
+      </c>
+      <c r="G44" s="24">
+        <v>0.2988919325172148</v>
+      </c>
+      <c r="H44" s="24">
+        <v>8.1514322278576481E-2</v>
+      </c>
+      <c r="I44" s="24">
+        <v>-0.13497730434368468</v>
+      </c>
+      <c r="J44" s="24">
+        <v>-8.4915516166711502E-2</v>
+      </c>
+      <c r="K44" s="24">
+        <v>-0.21954357394378782</v>
+      </c>
+      <c r="L44" s="24">
+        <v>-0.21283866446849806</v>
+      </c>
+      <c r="M44" s="24">
+        <v>0.13105119334731596</v>
+      </c>
+      <c r="P44" s="24"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
+      <c r="P45" s="24"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M44">
